--- a/GradeDistributionsDB/Fall2014/Output/Fall2014 BA.xlsx
+++ b/GradeDistributionsDB/Fall2014/Output/Fall2014 BA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="896">
   <si>
     <t>Course</t>
   </si>
@@ -883,6 +883,15 @@
     <t>5.00%</t>
   </si>
   <si>
+    <t>YOST-BREMM C</t>
+  </si>
+  <si>
+    <t>28.13%</t>
+  </si>
+  <si>
+    <t>40.63%</t>
+  </si>
+  <si>
     <t>NORDLUND J</t>
   </si>
   <si>
@@ -1288,6 +1297,12 @@
     <t>ISYS-250</t>
   </si>
   <si>
+    <t>BECKER A</t>
+  </si>
+  <si>
+    <t>11.11%</t>
+  </si>
+  <si>
     <t>BOONE E</t>
   </si>
   <si>
@@ -1303,12 +1318,6 @@
     <t>10.53%</t>
   </si>
   <si>
-    <t>BECKER A</t>
-  </si>
-  <si>
-    <t>11.11%</t>
-  </si>
-  <si>
     <t>ISYS-300</t>
   </si>
   <si>
@@ -1669,6 +1678,15 @@
     <t>2.94%</t>
   </si>
   <si>
+    <t>MGMT-422</t>
+  </si>
+  <si>
+    <t>KING-METTERS K</t>
+  </si>
+  <si>
+    <t>78.57%</t>
+  </si>
+  <si>
     <t>MGMT-424</t>
   </si>
   <si>
@@ -1756,9 +1774,6 @@
     <t>62.50%</t>
   </si>
   <si>
-    <t>28.13%</t>
-  </si>
-  <si>
     <t>3.13%</t>
   </si>
   <si>
@@ -1999,9 +2014,6 @@
     <t>SCHLEICHER D</t>
   </si>
   <si>
-    <t>40.63%</t>
-  </si>
-  <si>
     <t>29.63%</t>
   </si>
   <si>
@@ -2035,6 +2047,12 @@
     <t>57.58%</t>
   </si>
   <si>
+    <t>MGMT-639</t>
+  </si>
+  <si>
+    <t>94.92%</t>
+  </si>
+  <si>
     <t>MGMT-640</t>
   </si>
   <si>
@@ -2164,6 +2182,15 @@
     <t>MKTG-322</t>
   </si>
   <si>
+    <t>WARREN C</t>
+  </si>
+  <si>
+    <t>55.41%</t>
+  </si>
+  <si>
+    <t>17.57%</t>
+  </si>
+  <si>
     <t>LOWE M</t>
   </si>
   <si>
@@ -2173,15 +2200,6 @@
     <t>24.05%</t>
   </si>
   <si>
-    <t>WARREN C</t>
-  </si>
-  <si>
-    <t>55.41%</t>
-  </si>
-  <si>
-    <t>17.57%</t>
-  </si>
-  <si>
     <t>ZIMMER M</t>
   </si>
   <si>
@@ -2455,6 +2473,15 @@
     <t>39.13%</t>
   </si>
   <si>
+    <t>ARREOLA-RISA A</t>
+  </si>
+  <si>
+    <t>34.21%</t>
+  </si>
+  <si>
+    <t>2.63%</t>
+  </si>
+  <si>
     <t>DARCEY L</t>
   </si>
   <si>
@@ -2551,9 +2578,24 @@
     <t>55.79%</t>
   </si>
   <si>
+    <t>SCMT-361</t>
+  </si>
+  <si>
+    <t>40.28%</t>
+  </si>
+  <si>
+    <t>9.72%</t>
+  </si>
+  <si>
     <t>SCMT-364</t>
   </si>
   <si>
+    <t>AKTURK M</t>
+  </si>
+  <si>
+    <t>20.59%</t>
+  </si>
+  <si>
     <t>ABBEY J</t>
   </si>
   <si>
@@ -2564,12 +2606,6 @@
   </si>
   <si>
     <t>11.62%</t>
-  </si>
-  <si>
-    <t>AKTURK M</t>
-  </si>
-  <si>
-    <t>20.59%</t>
   </si>
   <si>
     <t>SKRISKANDARAJAH C</t>
@@ -3002,7 +3038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H629"/>
+  <dimension ref="A1:H640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4626,48 +4662,48 @@
     </row>
     <row r="136" spans="1:8">
       <c r="B136" t="s">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="C136" t="n">
-        <v>3.6687</v>
+        <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="E136" t="s">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="F136" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
         <v>32</v>
       </c>
       <c r="H136" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="B137" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="C137" t="n">
-        <v>4</v>
+        <v>3.6687</v>
       </c>
       <c r="D137" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="G137" t="s">
         <v>32</v>
       </c>
       <c r="H137" t="s">
-        <v>32</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4917,1922 +4953,1922 @@
         <v>289</v>
       </c>
       <c r="C161" t="n">
-        <v>3.017</v>
+        <v>2.969</v>
       </c>
       <c r="D161" t="s">
         <v>290</v>
       </c>
       <c r="E161" t="s">
+        <v>291</v>
+      </c>
+      <c r="F161" t="s">
+        <v>71</v>
+      </c>
+      <c r="G161" t="s">
+        <v>32</v>
+      </c>
+      <c r="H161" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="B162" t="s">
+        <v>292</v>
+      </c>
+      <c r="C162" t="n">
+        <v>3.017</v>
+      </c>
+      <c r="D162" t="s">
+        <v>293</v>
+      </c>
+      <c r="E162" t="s">
         <v>287</v>
       </c>
-      <c r="F161" t="s">
-        <v>291</v>
-      </c>
-      <c r="G161" t="s">
-        <v>32</v>
-      </c>
-      <c r="H161" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="s">
-        <v>292</v>
+      <c r="F162" t="s">
+        <v>294</v>
+      </c>
+      <c r="G162" t="s">
+        <v>32</v>
+      </c>
+      <c r="H162" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="B164" t="s">
-        <v>293</v>
-      </c>
-      <c r="C164" t="n">
+      <c r="A164" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="B165" t="s">
+        <v>296</v>
+      </c>
+      <c r="C165" t="n">
         <v>2.6563</v>
       </c>
-      <c r="D164" t="s">
-        <v>294</v>
-      </c>
-      <c r="E164" t="s">
-        <v>295</v>
-      </c>
-      <c r="F164" t="s">
-        <v>296</v>
-      </c>
-      <c r="G164" t="s">
+      <c r="D165" t="s">
         <v>297</v>
       </c>
-      <c r="H164" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" t="s">
+      <c r="E165" t="s">
         <v>298</v>
       </c>
+      <c r="F165" t="s">
+        <v>299</v>
+      </c>
+      <c r="G165" t="s">
+        <v>300</v>
+      </c>
+      <c r="H165" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="B167" t="s">
-        <v>299</v>
-      </c>
-      <c r="C167" t="n">
+      <c r="A167" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="B168" t="s">
+        <v>302</v>
+      </c>
+      <c r="C168" t="n">
         <v>2.73</v>
       </c>
-      <c r="D167" t="s">
-        <v>300</v>
-      </c>
-      <c r="E167" t="s">
-        <v>301</v>
-      </c>
-      <c r="F167" t="s">
+      <c r="D168" t="s">
+        <v>303</v>
+      </c>
+      <c r="E168" t="s">
+        <v>304</v>
+      </c>
+      <c r="F168" t="s">
+        <v>305</v>
+      </c>
+      <c r="G168" t="s">
+        <v>306</v>
+      </c>
+      <c r="H168" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="B171" t="s">
+        <v>308</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3.366</v>
+      </c>
+      <c r="D171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E171" t="s">
+        <v>310</v>
+      </c>
+      <c r="F171" t="s">
+        <v>311</v>
+      </c>
+      <c r="G171" t="s">
+        <v>32</v>
+      </c>
+      <c r="H171" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="B174" t="s">
+        <v>313</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2.8695</v>
+      </c>
+      <c r="D174" t="s">
+        <v>314</v>
+      </c>
+      <c r="E174" t="s">
+        <v>315</v>
+      </c>
+      <c r="F174" t="s">
+        <v>316</v>
+      </c>
+      <c r="G174" t="s">
+        <v>317</v>
+      </c>
+      <c r="H174" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="B177" t="s">
+        <v>320</v>
+      </c>
+      <c r="C177" t="n">
+        <v>3.938</v>
+      </c>
+      <c r="D177" t="s">
+        <v>226</v>
+      </c>
+      <c r="E177" t="s">
+        <v>321</v>
+      </c>
+      <c r="F177" t="s">
+        <v>32</v>
+      </c>
+      <c r="G177" t="s">
+        <v>32</v>
+      </c>
+      <c r="H177" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="B180" t="s">
+        <v>323</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4</v>
+      </c>
+      <c r="D180" t="s">
+        <v>230</v>
+      </c>
+      <c r="E180" t="s">
+        <v>32</v>
+      </c>
+      <c r="F180" t="s">
+        <v>32</v>
+      </c>
+      <c r="G180" t="s">
+        <v>32</v>
+      </c>
+      <c r="H180" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="B183" t="s">
+        <v>325</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="D183" t="s">
+        <v>257</v>
+      </c>
+      <c r="E183" t="s">
+        <v>326</v>
+      </c>
+      <c r="F183" t="s">
+        <v>121</v>
+      </c>
+      <c r="G183" t="s">
+        <v>32</v>
+      </c>
+      <c r="H183" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="B186" t="s">
+        <v>328</v>
+      </c>
+      <c r="C186" t="n">
+        <v>3.068</v>
+      </c>
+      <c r="D186" t="s">
+        <v>329</v>
+      </c>
+      <c r="E186" t="s">
+        <v>330</v>
+      </c>
+      <c r="F186" t="s">
+        <v>331</v>
+      </c>
+      <c r="G186" t="s">
+        <v>32</v>
+      </c>
+      <c r="H186" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="B189" t="s">
+        <v>158</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3.3443</v>
+      </c>
+      <c r="D189" t="s">
+        <v>143</v>
+      </c>
+      <c r="E189" t="s">
+        <v>333</v>
+      </c>
+      <c r="F189" t="s">
+        <v>334</v>
+      </c>
+      <c r="G189" t="s">
+        <v>32</v>
+      </c>
+      <c r="H189" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="B192" t="s">
         <v>302</v>
       </c>
-      <c r="G167" t="s">
-        <v>303</v>
-      </c>
-      <c r="H167" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="B170" t="s">
-        <v>305</v>
-      </c>
-      <c r="C170" t="n">
-        <v>3.366</v>
-      </c>
-      <c r="D170" t="s">
-        <v>306</v>
-      </c>
-      <c r="E170" t="s">
-        <v>307</v>
-      </c>
-      <c r="F170" t="s">
-        <v>308</v>
-      </c>
-      <c r="G170" t="s">
-        <v>32</v>
-      </c>
-      <c r="H170" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="B173" t="s">
-        <v>310</v>
-      </c>
-      <c r="C173" t="n">
-        <v>2.8695</v>
-      </c>
-      <c r="D173" t="s">
-        <v>311</v>
-      </c>
-      <c r="E173" t="s">
-        <v>312</v>
-      </c>
-      <c r="F173" t="s">
-        <v>313</v>
-      </c>
-      <c r="G173" t="s">
-        <v>314</v>
-      </c>
-      <c r="H173" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="B176" t="s">
-        <v>317</v>
-      </c>
-      <c r="C176" t="n">
-        <v>3.938</v>
-      </c>
-      <c r="D176" t="s">
-        <v>226</v>
-      </c>
-      <c r="E176" t="s">
-        <v>318</v>
-      </c>
-      <c r="F176" t="s">
-        <v>32</v>
-      </c>
-      <c r="G176" t="s">
-        <v>32</v>
-      </c>
-      <c r="H176" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="B179" t="s">
-        <v>320</v>
-      </c>
-      <c r="C179" t="n">
+      <c r="C192" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="D192" t="s">
+        <v>336</v>
+      </c>
+      <c r="E192" t="s">
+        <v>337</v>
+      </c>
+      <c r="F192" t="s">
+        <v>338</v>
+      </c>
+      <c r="G192" t="s">
+        <v>32</v>
+      </c>
+      <c r="H192" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="B195" t="s">
+        <v>340</v>
+      </c>
+      <c r="C195" t="n">
         <v>4</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D195" t="s">
         <v>230</v>
       </c>
-      <c r="E179" t="s">
-        <v>32</v>
-      </c>
-      <c r="F179" t="s">
-        <v>32</v>
-      </c>
-      <c r="G179" t="s">
-        <v>32</v>
-      </c>
-      <c r="H179" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" t="s">
+      <c r="E195" t="s">
+        <v>32</v>
+      </c>
+      <c r="F195" t="s">
+        <v>32</v>
+      </c>
+      <c r="G195" t="s">
+        <v>32</v>
+      </c>
+      <c r="H195" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="B198" t="s">
+        <v>342</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.188</v>
+      </c>
+      <c r="D198" t="s">
+        <v>175</v>
+      </c>
+      <c r="E198" t="s">
+        <v>343</v>
+      </c>
+      <c r="F198" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="B182" t="s">
-        <v>322</v>
-      </c>
-      <c r="C182" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="D182" t="s">
-        <v>257</v>
-      </c>
-      <c r="E182" t="s">
-        <v>323</v>
-      </c>
-      <c r="F182" t="s">
-        <v>121</v>
-      </c>
-      <c r="G182" t="s">
-        <v>32</v>
-      </c>
-      <c r="H182" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="B185" t="s">
-        <v>325</v>
-      </c>
-      <c r="C185" t="n">
-        <v>3.068</v>
-      </c>
-      <c r="D185" t="s">
-        <v>326</v>
-      </c>
-      <c r="E185" t="s">
-        <v>327</v>
-      </c>
-      <c r="F185" t="s">
-        <v>328</v>
-      </c>
-      <c r="G185" t="s">
-        <v>32</v>
-      </c>
-      <c r="H185" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="B188" t="s">
-        <v>158</v>
-      </c>
-      <c r="C188" t="n">
-        <v>3.3443</v>
-      </c>
-      <c r="D188" t="s">
-        <v>143</v>
-      </c>
-      <c r="E188" t="s">
-        <v>330</v>
-      </c>
-      <c r="F188" t="s">
-        <v>331</v>
-      </c>
-      <c r="G188" t="s">
-        <v>32</v>
-      </c>
-      <c r="H188" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="B191" t="s">
-        <v>299</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="D191" t="s">
-        <v>333</v>
-      </c>
-      <c r="E191" t="s">
-        <v>334</v>
-      </c>
-      <c r="F191" t="s">
-        <v>335</v>
-      </c>
-      <c r="G191" t="s">
-        <v>32</v>
-      </c>
-      <c r="H191" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="B194" t="s">
-        <v>337</v>
-      </c>
-      <c r="C194" t="n">
-        <v>4</v>
-      </c>
-      <c r="D194" t="s">
-        <v>230</v>
-      </c>
-      <c r="E194" t="s">
-        <v>32</v>
-      </c>
-      <c r="F194" t="s">
-        <v>32</v>
-      </c>
-      <c r="G194" t="s">
-        <v>32</v>
-      </c>
-      <c r="H194" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="B197" t="s">
-        <v>339</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3.188</v>
-      </c>
-      <c r="D197" t="s">
-        <v>175</v>
-      </c>
-      <c r="E197" t="s">
-        <v>340</v>
-      </c>
-      <c r="F197" t="s">
-        <v>318</v>
-      </c>
-      <c r="G197" t="s">
-        <v>32</v>
-      </c>
-      <c r="H197" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" t="s">
-        <v>341</v>
+      <c r="G198" t="s">
+        <v>32</v>
+      </c>
+      <c r="H198" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="B200" t="s">
-        <v>342</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.2905</v>
-      </c>
-      <c r="D200" t="s">
-        <v>343</v>
-      </c>
-      <c r="E200" t="s">
+      <c r="A200" t="s">
         <v>344</v>
-      </c>
-      <c r="F200" t="s">
-        <v>345</v>
-      </c>
-      <c r="G200" t="s">
-        <v>32</v>
-      </c>
-      <c r="H200" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="B201" t="s">
+        <v>345</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.2905</v>
+      </c>
+      <c r="D201" t="s">
         <v>346</v>
       </c>
-      <c r="C201" t="n">
-        <v>3.449</v>
-      </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>347</v>
-      </c>
-      <c r="E201" t="s">
-        <v>36</v>
       </c>
       <c r="F201" t="s">
         <v>348</v>
       </c>
       <c r="G201" t="s">
+        <v>32</v>
+      </c>
+      <c r="H201" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="B202" t="s">
         <v>349</v>
       </c>
-      <c r="H201" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="A203" t="s">
+      <c r="C202" t="n">
+        <v>3.449</v>
+      </c>
+      <c r="D202" t="s">
         <v>350</v>
       </c>
+      <c r="E202" t="s">
+        <v>36</v>
+      </c>
+      <c r="F202" t="s">
+        <v>351</v>
+      </c>
+      <c r="G202" t="s">
+        <v>352</v>
+      </c>
+      <c r="H202" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="B204" t="s">
-        <v>351</v>
-      </c>
-      <c r="C204" t="n">
+      <c r="A204" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="B205" t="s">
+        <v>354</v>
+      </c>
+      <c r="C205" t="n">
         <v>3.4262</v>
       </c>
-      <c r="D204" t="s">
-        <v>352</v>
-      </c>
-      <c r="E204" t="s">
-        <v>353</v>
-      </c>
-      <c r="F204" t="s">
-        <v>354</v>
-      </c>
-      <c r="G204" t="s">
+      <c r="D205" t="s">
         <v>355</v>
       </c>
-      <c r="H204" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" t="s">
+      <c r="E205" t="s">
         <v>356</v>
       </c>
+      <c r="F205" t="s">
+        <v>357</v>
+      </c>
+      <c r="G205" t="s">
+        <v>358</v>
+      </c>
+      <c r="H205" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="207" spans="1:8">
-      <c r="B207" t="s">
-        <v>357</v>
-      </c>
-      <c r="C207" t="n">
+      <c r="A207" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="B208" t="s">
+        <v>360</v>
+      </c>
+      <c r="C208" t="n">
         <v>3.317</v>
       </c>
-      <c r="D207" t="s">
-        <v>358</v>
-      </c>
-      <c r="E207" t="s">
-        <v>359</v>
-      </c>
-      <c r="F207" t="s">
-        <v>360</v>
-      </c>
-      <c r="G207" t="s">
-        <v>360</v>
-      </c>
-      <c r="H207" t="s">
+      <c r="D208" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
+      <c r="E208" t="s">
         <v>362</v>
       </c>
+      <c r="F208" t="s">
+        <v>363</v>
+      </c>
+      <c r="G208" t="s">
+        <v>363</v>
+      </c>
+      <c r="H208" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="210" spans="1:8">
-      <c r="B210" t="s">
-        <v>310</v>
-      </c>
-      <c r="C210" t="n">
+      <c r="A210" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="B211" t="s">
+        <v>313</v>
+      </c>
+      <c r="C211" t="n">
         <v>3.5</v>
       </c>
-      <c r="D210" t="s">
-        <v>363</v>
-      </c>
-      <c r="E210" t="s">
-        <v>364</v>
-      </c>
-      <c r="F210" t="s">
+      <c r="D211" t="s">
+        <v>366</v>
+      </c>
+      <c r="E211" t="s">
+        <v>367</v>
+      </c>
+      <c r="F211" t="s">
         <v>131</v>
       </c>
-      <c r="G210" t="s">
-        <v>32</v>
-      </c>
-      <c r="H210" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" t="s">
-        <v>365</v>
+      <c r="G211" t="s">
+        <v>32</v>
+      </c>
+      <c r="H211" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="213" spans="1:8">
-      <c r="B213" t="s">
+      <c r="A213" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="B214" t="s">
         <v>281</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C214" t="n">
         <v>3.5963</v>
       </c>
-      <c r="D213" t="s">
-        <v>366</v>
-      </c>
-      <c r="E213" t="s">
-        <v>367</v>
-      </c>
-      <c r="F213" t="s">
-        <v>32</v>
-      </c>
-      <c r="G213" t="s">
-        <v>32</v>
-      </c>
-      <c r="H213" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" t="s">
-        <v>368</v>
+      <c r="D214" t="s">
+        <v>369</v>
+      </c>
+      <c r="E214" t="s">
+        <v>370</v>
+      </c>
+      <c r="F214" t="s">
+        <v>32</v>
+      </c>
+      <c r="G214" t="s">
+        <v>32</v>
+      </c>
+      <c r="H214" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="216" spans="1:8">
-      <c r="B216" t="s">
+      <c r="A216" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="B217" t="s">
         <v>199</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C217" t="n">
         <v>3.643</v>
       </c>
-      <c r="D216" t="s">
-        <v>369</v>
-      </c>
-      <c r="E216" t="s">
+      <c r="D217" t="s">
+        <v>372</v>
+      </c>
+      <c r="E217" t="s">
         <v>193</v>
       </c>
-      <c r="F216" t="s">
-        <v>32</v>
-      </c>
-      <c r="G216" t="s">
-        <v>32</v>
-      </c>
-      <c r="H216" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="A218" t="s">
-        <v>370</v>
+      <c r="F217" t="s">
+        <v>32</v>
+      </c>
+      <c r="G217" t="s">
+        <v>32</v>
+      </c>
+      <c r="H217" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="219" spans="1:8">
-      <c r="B219" t="s">
-        <v>339</v>
-      </c>
-      <c r="C219" t="n">
+      <c r="A219" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="B220" t="s">
+        <v>342</v>
+      </c>
+      <c r="C220" t="n">
         <v>3.478</v>
       </c>
-      <c r="D219" t="s">
-        <v>371</v>
-      </c>
-      <c r="E219" t="s">
-        <v>372</v>
-      </c>
-      <c r="F219" t="s">
-        <v>32</v>
-      </c>
-      <c r="G219" t="s">
-        <v>32</v>
-      </c>
-      <c r="H219" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" t="s">
-        <v>373</v>
+      <c r="D220" t="s">
+        <v>374</v>
+      </c>
+      <c r="E220" t="s">
+        <v>375</v>
+      </c>
+      <c r="F220" t="s">
+        <v>32</v>
+      </c>
+      <c r="G220" t="s">
+        <v>32</v>
+      </c>
+      <c r="H220" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="222" spans="1:8">
-      <c r="B222" t="s">
-        <v>317</v>
-      </c>
-      <c r="C222" t="n">
+      <c r="A222" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="B223" t="s">
+        <v>320</v>
+      </c>
+      <c r="C223" t="n">
         <v>4</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D223" t="s">
         <v>230</v>
       </c>
-      <c r="E222" t="s">
-        <v>32</v>
-      </c>
-      <c r="F222" t="s">
-        <v>32</v>
-      </c>
-      <c r="G222" t="s">
-        <v>32</v>
-      </c>
-      <c r="H222" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" t="s">
-        <v>374</v>
+      <c r="E223" t="s">
+        <v>32</v>
+      </c>
+      <c r="F223" t="s">
+        <v>32</v>
+      </c>
+      <c r="G223" t="s">
+        <v>32</v>
+      </c>
+      <c r="H223" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="B225" t="s">
-        <v>375</v>
-      </c>
-      <c r="C225" t="n">
+      <c r="A225" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="B226" t="s">
+        <v>378</v>
+      </c>
+      <c r="C226" t="n">
         <v>3.286</v>
       </c>
-      <c r="D225" t="s">
-        <v>376</v>
-      </c>
-      <c r="E225" t="s">
+      <c r="D226" t="s">
+        <v>379</v>
+      </c>
+      <c r="E226" t="s">
         <v>78</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F226" t="s">
         <v>219</v>
       </c>
-      <c r="G225" t="s">
-        <v>32</v>
-      </c>
-      <c r="H225" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" t="s">
-        <v>377</v>
+      <c r="G226" t="s">
+        <v>32</v>
+      </c>
+      <c r="H226" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="228" spans="1:8">
-      <c r="B228" t="s">
-        <v>378</v>
-      </c>
-      <c r="C228" t="n">
+      <c r="A228" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="B229" t="s">
+        <v>381</v>
+      </c>
+      <c r="C229" t="n">
         <v>3.656</v>
       </c>
-      <c r="D228" t="s">
-        <v>379</v>
-      </c>
-      <c r="E228" t="s">
-        <v>380</v>
-      </c>
-      <c r="F228" t="s">
-        <v>32</v>
-      </c>
-      <c r="G228" t="s">
-        <v>32</v>
-      </c>
-      <c r="H228" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" t="s">
-        <v>381</v>
+      <c r="D229" t="s">
+        <v>382</v>
+      </c>
+      <c r="E229" t="s">
+        <v>383</v>
+      </c>
+      <c r="F229" t="s">
+        <v>32</v>
+      </c>
+      <c r="G229" t="s">
+        <v>32</v>
+      </c>
+      <c r="H229" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="231" spans="1:8">
-      <c r="B231" t="s">
-        <v>382</v>
-      </c>
-      <c r="C231" t="n">
+      <c r="A231" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="B232" t="s">
+        <v>385</v>
+      </c>
+      <c r="C232" t="n">
         <v>3.389</v>
       </c>
-      <c r="D231" t="s">
-        <v>383</v>
-      </c>
-      <c r="E231" t="s">
-        <v>384</v>
-      </c>
-      <c r="F231" t="s">
-        <v>32</v>
-      </c>
-      <c r="G231" t="s">
-        <v>32</v>
-      </c>
-      <c r="H231" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" t="s">
-        <v>385</v>
+      <c r="D232" t="s">
+        <v>386</v>
+      </c>
+      <c r="E232" t="s">
+        <v>387</v>
+      </c>
+      <c r="F232" t="s">
+        <v>32</v>
+      </c>
+      <c r="G232" t="s">
+        <v>32</v>
+      </c>
+      <c r="H232" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="234" spans="1:8">
-      <c r="B234" t="s">
-        <v>299</v>
-      </c>
-      <c r="C234" t="n">
+      <c r="A234" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="B235" t="s">
+        <v>302</v>
+      </c>
+      <c r="C235" t="n">
         <v>3.457</v>
       </c>
-      <c r="D234" t="s">
-        <v>386</v>
-      </c>
-      <c r="E234" t="s">
-        <v>387</v>
-      </c>
-      <c r="F234" t="s">
-        <v>32</v>
-      </c>
-      <c r="G234" t="s">
-        <v>32</v>
-      </c>
-      <c r="H234" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" t="s">
-        <v>388</v>
+      <c r="D235" t="s">
+        <v>389</v>
+      </c>
+      <c r="E235" t="s">
+        <v>390</v>
+      </c>
+      <c r="F235" t="s">
+        <v>32</v>
+      </c>
+      <c r="G235" t="s">
+        <v>32</v>
+      </c>
+      <c r="H235" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="237" spans="1:8">
-      <c r="B237" t="s">
-        <v>389</v>
-      </c>
-      <c r="C237" t="n">
+      <c r="A237" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="B238" t="s">
+        <v>392</v>
+      </c>
+      <c r="C238" t="n">
         <v>3.931</v>
       </c>
-      <c r="D237" t="s">
-        <v>390</v>
-      </c>
-      <c r="E237" t="s">
+      <c r="D238" t="s">
+        <v>393</v>
+      </c>
+      <c r="E238" t="s">
         <v>168</v>
       </c>
-      <c r="F237" t="s">
-        <v>32</v>
-      </c>
-      <c r="G237" t="s">
-        <v>32</v>
-      </c>
-      <c r="H237" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" t="s">
-        <v>391</v>
+      <c r="F238" t="s">
+        <v>32</v>
+      </c>
+      <c r="G238" t="s">
+        <v>32</v>
+      </c>
+      <c r="H238" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="240" spans="1:8">
-      <c r="B240" t="s">
-        <v>339</v>
-      </c>
-      <c r="C240" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="D240" t="s">
-        <v>392</v>
-      </c>
-      <c r="E240" t="s">
-        <v>393</v>
-      </c>
-      <c r="F240" t="s">
-        <v>32</v>
-      </c>
-      <c r="G240" t="s">
-        <v>32</v>
-      </c>
-      <c r="H240" t="s">
-        <v>32</v>
+      <c r="A240" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="B241" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="C241" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D241" t="s">
+        <v>395</v>
+      </c>
+      <c r="E241" t="s">
+        <v>396</v>
+      </c>
+      <c r="F241" t="s">
+        <v>32</v>
+      </c>
+      <c r="G241" t="s">
+        <v>32</v>
+      </c>
+      <c r="H241" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="B242" t="s">
+        <v>325</v>
+      </c>
+      <c r="C242" t="n">
         <v>2.9735</v>
       </c>
-      <c r="D241" t="s">
-        <v>394</v>
-      </c>
-      <c r="E241" t="s">
-        <v>395</v>
-      </c>
-      <c r="F241" t="s">
-        <v>396</v>
-      </c>
-      <c r="G241" t="s">
-        <v>32</v>
-      </c>
-      <c r="H241" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" t="s">
+      <c r="D242" t="s">
         <v>397</v>
       </c>
+      <c r="E242" t="s">
+        <v>398</v>
+      </c>
+      <c r="F242" t="s">
+        <v>399</v>
+      </c>
+      <c r="G242" t="s">
+        <v>32</v>
+      </c>
+      <c r="H242" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="244" spans="1:8">
-      <c r="B244" t="s">
-        <v>398</v>
-      </c>
-      <c r="C244" t="n">
+      <c r="A244" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="B245" t="s">
+        <v>401</v>
+      </c>
+      <c r="C245" t="n">
         <v>3.7</v>
       </c>
-      <c r="D244" t="s">
-        <v>399</v>
-      </c>
-      <c r="E244" t="s">
+      <c r="D245" t="s">
+        <v>402</v>
+      </c>
+      <c r="E245" t="s">
         <v>283</v>
       </c>
-      <c r="F244" t="s">
-        <v>32</v>
-      </c>
-      <c r="G244" t="s">
-        <v>32</v>
-      </c>
-      <c r="H244" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" t="s">
-        <v>400</v>
+      <c r="F245" t="s">
+        <v>32</v>
+      </c>
+      <c r="G245" t="s">
+        <v>32</v>
+      </c>
+      <c r="H245" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="B247" t="s">
-        <v>401</v>
-      </c>
-      <c r="C247" t="n">
-        <v>3</v>
-      </c>
-      <c r="D247" t="s">
-        <v>32</v>
-      </c>
-      <c r="E247" t="s">
-        <v>230</v>
-      </c>
-      <c r="F247" t="s">
-        <v>32</v>
-      </c>
-      <c r="G247" t="s">
-        <v>32</v>
-      </c>
-      <c r="H247" t="s">
-        <v>32</v>
+      <c r="A247" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="B248" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C248" t="n">
+        <v>3</v>
+      </c>
+      <c r="D248" t="s">
+        <v>32</v>
+      </c>
+      <c r="E248" t="s">
+        <v>230</v>
+      </c>
+      <c r="F248" t="s">
+        <v>32</v>
+      </c>
+      <c r="G248" t="s">
+        <v>32</v>
+      </c>
+      <c r="H248" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="B249" t="s">
+        <v>405</v>
+      </c>
+      <c r="C249" t="n">
         <v>3.2</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D249" t="s">
         <v>55</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E249" t="s">
         <v>55</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F249" t="s">
         <v>257</v>
       </c>
-      <c r="G248" t="s">
-        <v>32</v>
-      </c>
-      <c r="H248" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" t="s">
-        <v>403</v>
+      <c r="G249" t="s">
+        <v>32</v>
+      </c>
+      <c r="H249" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="251" spans="1:8">
-      <c r="B251" t="s">
-        <v>404</v>
-      </c>
-      <c r="C251" t="n">
+      <c r="A251" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="B252" t="s">
+        <v>407</v>
+      </c>
+      <c r="C252" t="n">
         <v>3.516</v>
       </c>
-      <c r="D251" t="s">
-        <v>405</v>
-      </c>
-      <c r="E251" t="s">
-        <v>406</v>
-      </c>
-      <c r="F251" t="s">
-        <v>407</v>
-      </c>
-      <c r="G251" t="s">
+      <c r="D252" t="s">
         <v>408</v>
       </c>
-      <c r="H251" t="s">
+      <c r="E252" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" t="s">
+      <c r="F252" t="s">
         <v>410</v>
       </c>
+      <c r="G252" t="s">
+        <v>411</v>
+      </c>
+      <c r="H252" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="254" spans="1:8">
-      <c r="B254" t="s">
-        <v>404</v>
-      </c>
-      <c r="C254" t="n">
-        <v>3.469</v>
-      </c>
-      <c r="D254" t="s">
-        <v>411</v>
-      </c>
-      <c r="E254" t="s">
-        <v>412</v>
-      </c>
-      <c r="F254" t="s">
+      <c r="A254" t="s">
         <v>413</v>
-      </c>
-      <c r="G254" t="s">
-        <v>349</v>
-      </c>
-      <c r="H254" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="B255" t="s">
+        <v>407</v>
+      </c>
+      <c r="C255" t="n">
+        <v>3.469</v>
+      </c>
+      <c r="D255" t="s">
         <v>414</v>
       </c>
-      <c r="C255" t="n">
-        <v>3.1077</v>
-      </c>
-      <c r="D255" t="s">
+      <c r="E255" t="s">
         <v>415</v>
       </c>
-      <c r="E255" t="s">
+      <c r="F255" t="s">
         <v>416</v>
       </c>
-      <c r="F255" t="s">
-        <v>417</v>
-      </c>
       <c r="G255" t="s">
-        <v>418</v>
+        <v>352</v>
       </c>
       <c r="H255" t="s">
-        <v>419</v>
+        <v>38</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="B256" t="s">
+        <v>417</v>
+      </c>
+      <c r="C256" t="n">
+        <v>3.1077</v>
+      </c>
+      <c r="D256" t="s">
+        <v>418</v>
+      </c>
+      <c r="E256" t="s">
+        <v>419</v>
+      </c>
+      <c r="F256" t="s">
         <v>420</v>
       </c>
-      <c r="C256" t="n">
+      <c r="G256" t="s">
+        <v>421</v>
+      </c>
+      <c r="H256" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="B257" t="s">
+        <v>423</v>
+      </c>
+      <c r="C257" t="n">
         <v>3.885</v>
       </c>
-      <c r="D256" t="s">
-        <v>421</v>
-      </c>
-      <c r="E256" t="s">
-        <v>422</v>
-      </c>
-      <c r="F256" t="s">
-        <v>32</v>
-      </c>
-      <c r="G256" t="s">
-        <v>32</v>
-      </c>
-      <c r="H256" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="A258" t="s">
-        <v>423</v>
+      <c r="D257" t="s">
+        <v>424</v>
+      </c>
+      <c r="E257" t="s">
+        <v>425</v>
+      </c>
+      <c r="F257" t="s">
+        <v>32</v>
+      </c>
+      <c r="G257" t="s">
+        <v>32</v>
+      </c>
+      <c r="H257" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="B259" t="s">
-        <v>424</v>
-      </c>
-      <c r="C259" t="n">
-        <v>3</v>
-      </c>
-      <c r="D259" t="s">
-        <v>425</v>
-      </c>
-      <c r="E259" t="s">
+      <c r="A259" t="s">
         <v>426</v>
-      </c>
-      <c r="F259" t="s">
-        <v>427</v>
-      </c>
-      <c r="G259" t="s">
-        <v>428</v>
-      </c>
-      <c r="H259" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="B260" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C260" t="n">
         <v>2.944</v>
       </c>
       <c r="D260" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E260" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F260" t="s">
+        <v>428</v>
+      </c>
+      <c r="G260" t="s">
+        <v>32</v>
+      </c>
+      <c r="H260" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="B261" t="s">
+        <v>429</v>
+      </c>
+      <c r="C261" t="n">
+        <v>3</v>
+      </c>
+      <c r="D261" t="s">
         <v>430</v>
       </c>
-      <c r="G260" t="s">
-        <v>32</v>
-      </c>
-      <c r="H260" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262" t="s">
+      <c r="E261" t="s">
         <v>431</v>
       </c>
+      <c r="F261" t="s">
+        <v>432</v>
+      </c>
+      <c r="G261" t="s">
+        <v>433</v>
+      </c>
+      <c r="H261" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="263" spans="1:8">
-      <c r="B263" t="s">
-        <v>432</v>
-      </c>
-      <c r="C263" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="D263" t="s">
-        <v>80</v>
-      </c>
-      <c r="E263" t="s">
-        <v>31</v>
-      </c>
-      <c r="F263" t="s">
-        <v>32</v>
-      </c>
-      <c r="G263" t="s">
-        <v>433</v>
-      </c>
-      <c r="H263" t="s">
-        <v>331</v>
+      <c r="A263" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="B264" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C264" t="n">
-        <v>3.904</v>
+        <v>2.85</v>
       </c>
       <c r="D264" t="s">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="E264" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="F264" t="s">
         <v>32</v>
       </c>
       <c r="G264" t="s">
-        <v>32</v>
+        <v>436</v>
       </c>
       <c r="H264" t="s">
-        <v>32</v>
+        <v>334</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="B265" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C265" t="n">
+        <v>3.904</v>
+      </c>
+      <c r="D265" t="s">
+        <v>438</v>
+      </c>
+      <c r="E265" t="s">
+        <v>104</v>
+      </c>
+      <c r="F265" t="s">
+        <v>32</v>
+      </c>
+      <c r="G265" t="s">
+        <v>32</v>
+      </c>
+      <c r="H265" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="B266" t="s">
+        <v>439</v>
+      </c>
+      <c r="C266" t="n">
         <v>3.733</v>
       </c>
-      <c r="D265" t="s">
-        <v>437</v>
-      </c>
-      <c r="E265" t="s">
-        <v>32</v>
-      </c>
-      <c r="F265" t="s">
-        <v>32</v>
-      </c>
-      <c r="G265" t="s">
-        <v>32</v>
-      </c>
-      <c r="H265" t="s">
+      <c r="D266" t="s">
+        <v>440</v>
+      </c>
+      <c r="E266" t="s">
+        <v>32</v>
+      </c>
+      <c r="F266" t="s">
+        <v>32</v>
+      </c>
+      <c r="G266" t="s">
+        <v>32</v>
+      </c>
+      <c r="H266" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
-      <c r="A267" t="s">
-        <v>438</v>
-      </c>
-    </row>
     <row r="268" spans="1:8">
-      <c r="B268" t="s">
-        <v>436</v>
-      </c>
-      <c r="C268" t="n">
-        <v>3.308</v>
-      </c>
-      <c r="D268" t="s">
-        <v>439</v>
-      </c>
-      <c r="E268" t="s">
-        <v>30</v>
-      </c>
-      <c r="F268" t="s">
-        <v>331</v>
-      </c>
-      <c r="G268" t="s">
-        <v>32</v>
-      </c>
-      <c r="H268" t="s">
-        <v>32</v>
+      <c r="A268" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="B269" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="C269" t="n">
+        <v>3.308</v>
+      </c>
+      <c r="D269" t="s">
+        <v>442</v>
+      </c>
+      <c r="E269" t="s">
+        <v>30</v>
+      </c>
+      <c r="F269" t="s">
+        <v>334</v>
+      </c>
+      <c r="G269" t="s">
+        <v>32</v>
+      </c>
+      <c r="H269" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="B270" t="s">
+        <v>429</v>
+      </c>
+      <c r="C270" t="n">
         <v>2.522</v>
       </c>
-      <c r="D269" t="s">
-        <v>440</v>
-      </c>
-      <c r="E269" t="s">
+      <c r="D270" t="s">
+        <v>443</v>
+      </c>
+      <c r="E270" t="s">
         <v>159</v>
       </c>
-      <c r="F269" t="s">
-        <v>32</v>
-      </c>
-      <c r="G269" t="s">
-        <v>441</v>
-      </c>
-      <c r="H269" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" t="s">
-        <v>442</v>
+      <c r="F270" t="s">
+        <v>32</v>
+      </c>
+      <c r="G270" t="s">
+        <v>444</v>
+      </c>
+      <c r="H270" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="272" spans="1:8">
-      <c r="B272" t="s">
+      <c r="A272" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="B273" t="s">
+        <v>427</v>
+      </c>
+      <c r="C273" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="D273" t="s">
+        <v>446</v>
+      </c>
+      <c r="E273" t="s">
+        <v>372</v>
+      </c>
+      <c r="F273" t="s">
+        <v>78</v>
+      </c>
+      <c r="G273" t="s">
+        <v>32</v>
+      </c>
+      <c r="H273" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="B276" t="s">
+        <v>448</v>
+      </c>
+      <c r="C276" t="n">
+        <v>3.429</v>
+      </c>
+      <c r="D276" t="s">
+        <v>449</v>
+      </c>
+      <c r="E276" t="s">
+        <v>450</v>
+      </c>
+      <c r="F276" t="s">
+        <v>246</v>
+      </c>
+      <c r="G276" t="s">
+        <v>247</v>
+      </c>
+      <c r="H276" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="B279" t="s">
+        <v>417</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3.391</v>
+      </c>
+      <c r="D279" t="s">
+        <v>374</v>
+      </c>
+      <c r="E279" t="s">
+        <v>452</v>
+      </c>
+      <c r="F279" t="s">
+        <v>263</v>
+      </c>
+      <c r="G279" t="s">
+        <v>32</v>
+      </c>
+      <c r="H279" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="B282" t="s">
+        <v>435</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2.9896</v>
+      </c>
+      <c r="D282" t="s">
+        <v>454</v>
+      </c>
+      <c r="E282" t="s">
+        <v>455</v>
+      </c>
+      <c r="F282" t="s">
+        <v>456</v>
+      </c>
+      <c r="G282" t="s">
+        <v>457</v>
+      </c>
+      <c r="H282" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="B285" t="s">
+        <v>459</v>
+      </c>
+      <c r="C285" t="n">
+        <v>3.389</v>
+      </c>
+      <c r="D285" t="s">
+        <v>460</v>
+      </c>
+      <c r="E285" t="s">
+        <v>143</v>
+      </c>
+      <c r="F285" t="s">
+        <v>461</v>
+      </c>
+      <c r="G285" t="s">
+        <v>32</v>
+      </c>
+      <c r="H285" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="B288" t="s">
+        <v>463</v>
+      </c>
+      <c r="C288" t="n">
+        <v>3.598</v>
+      </c>
+      <c r="D288" t="s">
+        <v>464</v>
+      </c>
+      <c r="E288" t="s">
+        <v>465</v>
+      </c>
+      <c r="F288" t="s">
+        <v>466</v>
+      </c>
+      <c r="G288" t="s">
+        <v>32</v>
+      </c>
+      <c r="H288" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="B291" t="s">
+        <v>463</v>
+      </c>
+      <c r="C291" t="n">
+        <v>3.484</v>
+      </c>
+      <c r="D291" t="s">
+        <v>468</v>
+      </c>
+      <c r="E291" t="s">
+        <v>469</v>
+      </c>
+      <c r="F291" t="s">
+        <v>470</v>
+      </c>
+      <c r="G291" t="s">
+        <v>470</v>
+      </c>
+      <c r="H291" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="B294" t="s">
+        <v>427</v>
+      </c>
+      <c r="C294" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="D294" t="s">
+        <v>144</v>
+      </c>
+      <c r="E294" t="s">
+        <v>472</v>
+      </c>
+      <c r="F294" t="s">
+        <v>32</v>
+      </c>
+      <c r="G294" t="s">
+        <v>32</v>
+      </c>
+      <c r="H294" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="B297" t="s">
         <v>429</v>
       </c>
-      <c r="C272" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="D272" t="s">
-        <v>443</v>
-      </c>
-      <c r="E272" t="s">
-        <v>369</v>
-      </c>
-      <c r="F272" t="s">
-        <v>78</v>
-      </c>
-      <c r="G272" t="s">
-        <v>32</v>
-      </c>
-      <c r="H272" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="B275" t="s">
-        <v>445</v>
-      </c>
-      <c r="C275" t="n">
-        <v>3.429</v>
-      </c>
-      <c r="D275" t="s">
-        <v>446</v>
-      </c>
-      <c r="E275" t="s">
-        <v>447</v>
-      </c>
-      <c r="F275" t="s">
+      <c r="C297" t="n">
+        <v>3.568</v>
+      </c>
+      <c r="D297" t="s">
+        <v>181</v>
+      </c>
+      <c r="E297" t="s">
+        <v>182</v>
+      </c>
+      <c r="F297" t="s">
+        <v>32</v>
+      </c>
+      <c r="G297" t="s">
+        <v>32</v>
+      </c>
+      <c r="H297" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="B300" t="s">
+        <v>448</v>
+      </c>
+      <c r="C300" t="n">
+        <v>3.6695</v>
+      </c>
+      <c r="D300" t="s">
+        <v>475</v>
+      </c>
+      <c r="E300" t="s">
+        <v>50</v>
+      </c>
+      <c r="F300" t="s">
+        <v>32</v>
+      </c>
+      <c r="G300" t="s">
+        <v>32</v>
+      </c>
+      <c r="H300" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="B303" t="s">
+        <v>437</v>
+      </c>
+      <c r="C303" t="n">
+        <v>3.9613</v>
+      </c>
+      <c r="D303" t="s">
+        <v>477</v>
+      </c>
+      <c r="E303" t="s">
         <v>246</v>
       </c>
-      <c r="G275" t="s">
+      <c r="F303" t="s">
+        <v>32</v>
+      </c>
+      <c r="G303" t="s">
+        <v>32</v>
+      </c>
+      <c r="H303" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="B306" t="s">
+        <v>479</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3.5283</v>
+      </c>
+      <c r="D306" t="s">
+        <v>480</v>
+      </c>
+      <c r="E306" t="s">
+        <v>481</v>
+      </c>
+      <c r="F306" t="s">
         <v>247</v>
       </c>
-      <c r="H275" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="B278" t="s">
-        <v>414</v>
-      </c>
-      <c r="C278" t="n">
-        <v>3.391</v>
-      </c>
-      <c r="D278" t="s">
-        <v>371</v>
-      </c>
-      <c r="E278" t="s">
-        <v>449</v>
-      </c>
-      <c r="F278" t="s">
-        <v>263</v>
-      </c>
-      <c r="G278" t="s">
-        <v>32</v>
-      </c>
-      <c r="H278" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="B281" t="s">
-        <v>432</v>
-      </c>
-      <c r="C281" t="n">
-        <v>2.9896</v>
-      </c>
-      <c r="D281" t="s">
-        <v>451</v>
-      </c>
-      <c r="E281" t="s">
-        <v>452</v>
-      </c>
-      <c r="F281" t="s">
-        <v>453</v>
-      </c>
-      <c r="G281" t="s">
-        <v>454</v>
-      </c>
-      <c r="H281" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="A283" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="B284" t="s">
-        <v>456</v>
-      </c>
-      <c r="C284" t="n">
-        <v>3.389</v>
-      </c>
-      <c r="D284" t="s">
-        <v>457</v>
-      </c>
-      <c r="E284" t="s">
-        <v>143</v>
-      </c>
-      <c r="F284" t="s">
-        <v>458</v>
-      </c>
-      <c r="G284" t="s">
-        <v>32</v>
-      </c>
-      <c r="H284" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
-      <c r="A286" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
-      <c r="B287" t="s">
-        <v>460</v>
-      </c>
-      <c r="C287" t="n">
-        <v>3.598</v>
-      </c>
-      <c r="D287" t="s">
-        <v>461</v>
-      </c>
-      <c r="E287" t="s">
-        <v>462</v>
-      </c>
-      <c r="F287" t="s">
-        <v>463</v>
-      </c>
-      <c r="G287" t="s">
-        <v>32</v>
-      </c>
-      <c r="H287" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="A289" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
-      <c r="B290" t="s">
-        <v>460</v>
-      </c>
-      <c r="C290" t="n">
-        <v>3.484</v>
-      </c>
-      <c r="D290" t="s">
-        <v>465</v>
-      </c>
-      <c r="E290" t="s">
-        <v>466</v>
-      </c>
-      <c r="F290" t="s">
-        <v>467</v>
-      </c>
-      <c r="G290" t="s">
-        <v>467</v>
-      </c>
-      <c r="H290" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="A292" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
-      <c r="B293" t="s">
-        <v>429</v>
-      </c>
-      <c r="C293" t="n">
-        <v>3.467</v>
-      </c>
-      <c r="D293" t="s">
-        <v>144</v>
-      </c>
-      <c r="E293" t="s">
-        <v>469</v>
-      </c>
-      <c r="F293" t="s">
-        <v>32</v>
-      </c>
-      <c r="G293" t="s">
-        <v>32</v>
-      </c>
-      <c r="H293" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="A295" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
-      <c r="B296" t="s">
-        <v>424</v>
-      </c>
-      <c r="C296" t="n">
-        <v>3.568</v>
-      </c>
-      <c r="D296" t="s">
-        <v>181</v>
-      </c>
-      <c r="E296" t="s">
-        <v>182</v>
-      </c>
-      <c r="F296" t="s">
-        <v>32</v>
-      </c>
-      <c r="G296" t="s">
-        <v>32</v>
-      </c>
-      <c r="H296" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
-      <c r="A298" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
-      <c r="B299" t="s">
-        <v>445</v>
-      </c>
-      <c r="C299" t="n">
-        <v>3.6695</v>
-      </c>
-      <c r="D299" t="s">
-        <v>472</v>
-      </c>
-      <c r="E299" t="s">
-        <v>50</v>
-      </c>
-      <c r="F299" t="s">
-        <v>32</v>
-      </c>
-      <c r="G299" t="s">
-        <v>32</v>
-      </c>
-      <c r="H299" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="A301" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
-      <c r="B302" t="s">
-        <v>434</v>
-      </c>
-      <c r="C302" t="n">
-        <v>3.9613</v>
-      </c>
-      <c r="D302" t="s">
-        <v>474</v>
-      </c>
-      <c r="E302" t="s">
-        <v>246</v>
-      </c>
-      <c r="F302" t="s">
-        <v>32</v>
-      </c>
-      <c r="G302" t="s">
-        <v>32</v>
-      </c>
-      <c r="H302" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
-      <c r="A304" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="B305" t="s">
-        <v>476</v>
-      </c>
-      <c r="C305" t="n">
-        <v>3.5283</v>
-      </c>
-      <c r="D305" t="s">
-        <v>477</v>
-      </c>
-      <c r="E305" t="s">
-        <v>478</v>
-      </c>
-      <c r="F305" t="s">
-        <v>247</v>
-      </c>
-      <c r="G305" t="s">
-        <v>32</v>
-      </c>
-      <c r="H305" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="A307" t="s">
-        <v>479</v>
+      <c r="G306" t="s">
+        <v>32</v>
+      </c>
+      <c r="H306" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="308" spans="1:8">
-      <c r="B308" t="s">
-        <v>436</v>
-      </c>
-      <c r="C308" t="n">
+      <c r="A308" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="B309" t="s">
+        <v>439</v>
+      </c>
+      <c r="C309" t="n">
         <v>3.5205</v>
       </c>
-      <c r="D308" t="s">
-        <v>480</v>
-      </c>
-      <c r="E308" t="s">
-        <v>481</v>
-      </c>
-      <c r="F308" t="s">
-        <v>482</v>
-      </c>
-      <c r="G308" t="s">
-        <v>32</v>
-      </c>
-      <c r="H308" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" t="s">
+      <c r="D309" t="s">
         <v>483</v>
       </c>
+      <c r="E309" t="s">
+        <v>484</v>
+      </c>
+      <c r="F309" t="s">
+        <v>485</v>
+      </c>
+      <c r="G309" t="s">
+        <v>32</v>
+      </c>
+      <c r="H309" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="311" spans="1:8">
-      <c r="B311" t="s">
-        <v>484</v>
-      </c>
-      <c r="C311" t="n">
+      <c r="A311" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="B312" t="s">
+        <v>487</v>
+      </c>
+      <c r="C312" t="n">
         <v>3.956</v>
       </c>
-      <c r="D311" t="s">
-        <v>485</v>
-      </c>
-      <c r="E311" t="s">
-        <v>486</v>
-      </c>
-      <c r="F311" t="s">
-        <v>32</v>
-      </c>
-      <c r="G311" t="s">
-        <v>32</v>
-      </c>
-      <c r="H311" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="A313" t="s">
-        <v>487</v>
+      <c r="D312" t="s">
+        <v>488</v>
+      </c>
+      <c r="E312" t="s">
+        <v>489</v>
+      </c>
+      <c r="F312" t="s">
+        <v>32</v>
+      </c>
+      <c r="G312" t="s">
+        <v>32</v>
+      </c>
+      <c r="H312" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="314" spans="1:8">
-      <c r="B314" t="s">
-        <v>488</v>
-      </c>
-      <c r="C314" t="n">
+      <c r="A314" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="B315" t="s">
+        <v>491</v>
+      </c>
+      <c r="C315" t="n">
         <v>3.55</v>
       </c>
-      <c r="D314" t="s">
-        <v>489</v>
-      </c>
-      <c r="E314" t="s">
-        <v>490</v>
-      </c>
-      <c r="F314" t="s">
-        <v>32</v>
-      </c>
-      <c r="G314" t="s">
-        <v>32</v>
-      </c>
-      <c r="H314" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="A316" t="s">
+      <c r="D315" t="s">
+        <v>492</v>
+      </c>
+      <c r="E315" t="s">
+        <v>493</v>
+      </c>
+      <c r="F315" t="s">
+        <v>32</v>
+      </c>
+      <c r="G315" t="s">
+        <v>32</v>
+      </c>
+      <c r="H315" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="B318" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="B317" t="s">
-        <v>488</v>
-      </c>
-      <c r="C317" t="n">
+      <c r="C318" t="n">
         <v>3.55</v>
       </c>
-      <c r="D317" t="s">
-        <v>489</v>
-      </c>
-      <c r="E317" t="s">
-        <v>490</v>
-      </c>
-      <c r="F317" t="s">
-        <v>32</v>
-      </c>
-      <c r="G317" t="s">
-        <v>32</v>
-      </c>
-      <c r="H317" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
-      <c r="A319" t="s">
+      <c r="D318" t="s">
         <v>492</v>
       </c>
+      <c r="E318" t="s">
+        <v>493</v>
+      </c>
+      <c r="F318" t="s">
+        <v>32</v>
+      </c>
+      <c r="G318" t="s">
+        <v>32</v>
+      </c>
+      <c r="H318" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="320" spans="1:8">
-      <c r="B320" t="s">
-        <v>493</v>
-      </c>
-      <c r="C320" t="n">
+      <c r="A320" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="B321" t="s">
+        <v>496</v>
+      </c>
+      <c r="C321" t="n">
         <v>3.042</v>
       </c>
-      <c r="D320" t="s">
-        <v>494</v>
-      </c>
-      <c r="E320" t="s">
-        <v>495</v>
-      </c>
-      <c r="F320" t="s">
-        <v>496</v>
-      </c>
-      <c r="G320" t="s">
+      <c r="D321" t="s">
         <v>497</v>
       </c>
-      <c r="H320" t="s">
+      <c r="E321" t="s">
+        <v>498</v>
+      </c>
+      <c r="F321" t="s">
+        <v>499</v>
+      </c>
+      <c r="G321" t="s">
+        <v>500</v>
+      </c>
+      <c r="H321" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
-      <c r="A322" t="s">
-        <v>498</v>
-      </c>
-    </row>
     <row r="323" spans="1:8">
-      <c r="B323" t="s">
-        <v>499</v>
-      </c>
-      <c r="C323" t="n">
-        <v>2.363</v>
-      </c>
-      <c r="D323" t="s">
-        <v>500</v>
-      </c>
-      <c r="E323" t="s">
+      <c r="A323" t="s">
         <v>501</v>
-      </c>
-      <c r="F323" t="s">
-        <v>502</v>
-      </c>
-      <c r="G323" t="s">
-        <v>503</v>
-      </c>
-      <c r="H323" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="324" spans="1:8">
       <c r="B324" t="s">
+        <v>502</v>
+      </c>
+      <c r="C324" t="n">
+        <v>2.363</v>
+      </c>
+      <c r="D324" t="s">
+        <v>503</v>
+      </c>
+      <c r="E324" t="s">
+        <v>504</v>
+      </c>
+      <c r="F324" t="s">
         <v>505</v>
       </c>
-      <c r="C324" t="n">
+      <c r="G324" t="s">
+        <v>506</v>
+      </c>
+      <c r="H324" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="B325" t="s">
+        <v>508</v>
+      </c>
+      <c r="C325" t="n">
         <v>2.532</v>
       </c>
-      <c r="D324" t="s">
-        <v>506</v>
-      </c>
-      <c r="E324" t="s">
-        <v>507</v>
-      </c>
-      <c r="F324" t="s">
-        <v>507</v>
-      </c>
-      <c r="G324" t="s">
-        <v>508</v>
-      </c>
-      <c r="H324" t="s">
+      <c r="D325" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="326" spans="1:8">
-      <c r="A326" t="s">
+      <c r="E325" t="s">
         <v>510</v>
       </c>
+      <c r="F325" t="s">
+        <v>510</v>
+      </c>
+      <c r="G325" t="s">
+        <v>511</v>
+      </c>
+      <c r="H325" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="327" spans="1:8">
-      <c r="B327" t="s">
-        <v>505</v>
-      </c>
-      <c r="C327" t="n">
-        <v>3.4285</v>
-      </c>
-      <c r="D327" t="s">
-        <v>143</v>
-      </c>
-      <c r="E327" t="s">
-        <v>511</v>
-      </c>
-      <c r="F327" t="s">
-        <v>168</v>
-      </c>
-      <c r="G327" t="s">
-        <v>32</v>
-      </c>
-      <c r="H327" t="s">
-        <v>32</v>
+      <c r="A327" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="328" spans="1:8">
       <c r="B328" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="C328" t="n">
+        <v>3.4285</v>
+      </c>
+      <c r="D328" t="s">
+        <v>143</v>
+      </c>
+      <c r="E328" t="s">
+        <v>514</v>
+      </c>
+      <c r="F328" t="s">
+        <v>168</v>
+      </c>
+      <c r="G328" t="s">
+        <v>32</v>
+      </c>
+      <c r="H328" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="B329" t="s">
+        <v>502</v>
+      </c>
+      <c r="C329" t="n">
         <v>2.4335</v>
       </c>
-      <c r="D328" t="s">
-        <v>392</v>
-      </c>
-      <c r="E328" t="s">
-        <v>512</v>
-      </c>
-      <c r="F328" t="s">
-        <v>513</v>
-      </c>
-      <c r="G328" t="s">
-        <v>514</v>
-      </c>
-      <c r="H328" t="s">
+      <c r="D329" t="s">
+        <v>395</v>
+      </c>
+      <c r="E329" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="330" spans="1:8">
-      <c r="A330" t="s">
+      <c r="F329" t="s">
         <v>516</v>
       </c>
+      <c r="G329" t="s">
+        <v>517</v>
+      </c>
+      <c r="H329" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="331" spans="1:8">
-      <c r="B331" t="s">
-        <v>505</v>
-      </c>
-      <c r="C331" t="n">
+      <c r="A331" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="B332" t="s">
+        <v>508</v>
+      </c>
+      <c r="C332" t="n">
         <v>2.508</v>
       </c>
-      <c r="D331" t="s">
-        <v>517</v>
-      </c>
-      <c r="E331" t="s">
-        <v>383</v>
-      </c>
-      <c r="F331" t="s">
-        <v>518</v>
-      </c>
-      <c r="G331" t="s">
-        <v>519</v>
-      </c>
-      <c r="H331" t="s">
+      <c r="D332" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="333" spans="1:8">
-      <c r="A333" t="s">
+      <c r="E332" t="s">
+        <v>386</v>
+      </c>
+      <c r="F332" t="s">
         <v>521</v>
       </c>
+      <c r="G332" t="s">
+        <v>522</v>
+      </c>
+      <c r="H332" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="334" spans="1:8">
-      <c r="B334" t="s">
-        <v>522</v>
-      </c>
-      <c r="C334" t="n">
+      <c r="A334" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="B335" t="s">
+        <v>525</v>
+      </c>
+      <c r="C335" t="n">
         <v>4</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D335" t="s">
         <v>230</v>
       </c>
-      <c r="E334" t="s">
-        <v>32</v>
-      </c>
-      <c r="F334" t="s">
-        <v>32</v>
-      </c>
-      <c r="G334" t="s">
-        <v>32</v>
-      </c>
-      <c r="H334" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
-      <c r="A336" t="s">
-        <v>523</v>
+      <c r="E335" t="s">
+        <v>32</v>
+      </c>
+      <c r="F335" t="s">
+        <v>32</v>
+      </c>
+      <c r="G335" t="s">
+        <v>32</v>
+      </c>
+      <c r="H335" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="337" spans="1:8">
-      <c r="B337" t="s">
-        <v>524</v>
-      </c>
-      <c r="C337" t="n">
+      <c r="A337" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="B338" t="s">
+        <v>527</v>
+      </c>
+      <c r="C338" t="n">
         <v>2.5637</v>
       </c>
-      <c r="D337" t="s">
-        <v>525</v>
-      </c>
-      <c r="E337" t="s">
-        <v>526</v>
-      </c>
-      <c r="F337" t="s">
-        <v>527</v>
-      </c>
-      <c r="G337" t="s">
+      <c r="D338" t="s">
         <v>528</v>
       </c>
-      <c r="H337" t="s">
+      <c r="E338" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="339" spans="1:8">
-      <c r="A339" t="s">
+      <c r="F338" t="s">
         <v>530</v>
       </c>
+      <c r="G338" t="s">
+        <v>531</v>
+      </c>
+      <c r="H338" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="340" spans="1:8">
-      <c r="B340" t="s">
-        <v>531</v>
-      </c>
-      <c r="C340" t="n">
-        <v>3.683</v>
-      </c>
-      <c r="D340" t="s">
-        <v>532</v>
-      </c>
-      <c r="E340" t="s">
-        <v>175</v>
-      </c>
-      <c r="F340" t="s">
-        <v>32</v>
-      </c>
-      <c r="G340" t="s">
-        <v>32</v>
-      </c>
-      <c r="H340" t="s">
-        <v>13</v>
+      <c r="A340" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="341" spans="1:8">
       <c r="B341" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="C341" t="n">
+        <v>3.683</v>
+      </c>
+      <c r="D341" t="s">
+        <v>535</v>
+      </c>
+      <c r="E341" t="s">
+        <v>175</v>
+      </c>
+      <c r="F341" t="s">
+        <v>32</v>
+      </c>
+      <c r="G341" t="s">
+        <v>32</v>
+      </c>
+      <c r="H341" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="B342" t="s">
+        <v>527</v>
+      </c>
+      <c r="C342" t="n">
         <v>2.8766</v>
       </c>
-      <c r="D341" t="s">
-        <v>533</v>
-      </c>
-      <c r="E341" t="s">
-        <v>534</v>
-      </c>
-      <c r="F341" t="s">
-        <v>535</v>
-      </c>
-      <c r="G341" t="s">
+      <c r="D342" t="s">
         <v>536</v>
       </c>
-      <c r="H341" t="s">
+      <c r="E342" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="343" spans="1:8">
-      <c r="A343" t="s">
+      <c r="F342" t="s">
         <v>538</v>
       </c>
+      <c r="G342" t="s">
+        <v>539</v>
+      </c>
+      <c r="H342" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="344" spans="1:8">
-      <c r="B344" t="s">
-        <v>539</v>
-      </c>
-      <c r="C344" t="n">
+      <c r="A344" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="B345" t="s">
+        <v>542</v>
+      </c>
+      <c r="C345" t="n">
         <v>3.4095</v>
       </c>
-      <c r="D344" t="s">
-        <v>540</v>
-      </c>
-      <c r="E344" t="s">
+      <c r="D345" t="s">
+        <v>543</v>
+      </c>
+      <c r="E345" t="s">
         <v>120</v>
       </c>
-      <c r="F344" t="s">
+      <c r="F345" t="s">
         <v>118</v>
       </c>
-      <c r="G344" t="s">
-        <v>32</v>
-      </c>
-      <c r="H344" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
-      <c r="A346" t="s">
-        <v>541</v>
+      <c r="G345" t="s">
+        <v>32</v>
+      </c>
+      <c r="H345" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="347" spans="1:8">
-      <c r="B347" t="s">
-        <v>542</v>
-      </c>
-      <c r="C347" t="n">
-        <v>3.3055</v>
-      </c>
-      <c r="D347" t="s">
-        <v>543</v>
-      </c>
-      <c r="E347" t="s">
+      <c r="A347" t="s">
         <v>544</v>
-      </c>
-      <c r="F347" t="s">
-        <v>458</v>
-      </c>
-      <c r="G347" t="s">
-        <v>32</v>
-      </c>
-      <c r="H347" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -6840,16 +6876,16 @@
         <v>545</v>
       </c>
       <c r="C348" t="n">
-        <v>3.429</v>
+        <v>3.3055</v>
       </c>
       <c r="D348" t="s">
-        <v>143</v>
+        <v>546</v>
       </c>
       <c r="E348" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F348" t="s">
-        <v>519</v>
+        <v>461</v>
       </c>
       <c r="G348" t="s">
         <v>32</v>
@@ -6860,616 +6896,575 @@
     </row>
     <row r="349" spans="1:8">
       <c r="B349" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C349" t="n">
-        <v>3.191</v>
+        <v>3.429</v>
       </c>
       <c r="D349" t="s">
-        <v>548</v>
+        <v>143</v>
       </c>
       <c r="E349" t="s">
         <v>549</v>
       </c>
       <c r="F349" t="s">
-        <v>32</v>
+        <v>522</v>
       </c>
       <c r="G349" t="s">
         <v>32</v>
       </c>
       <c r="H349" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="B350" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="351" spans="1:8">
-      <c r="A351" t="s">
+      <c r="C350" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="D350" t="s">
         <v>551</v>
       </c>
+      <c r="E350" t="s">
+        <v>552</v>
+      </c>
+      <c r="F350" t="s">
+        <v>32</v>
+      </c>
+      <c r="G350" t="s">
+        <v>32</v>
+      </c>
+      <c r="H350" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="352" spans="1:8">
-      <c r="B352" t="s">
-        <v>531</v>
-      </c>
-      <c r="C352" t="n">
+      <c r="A352" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="B353" t="s">
+        <v>555</v>
+      </c>
+      <c r="C353" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="D353" t="s">
+        <v>556</v>
+      </c>
+      <c r="E353" t="s">
+        <v>446</v>
+      </c>
+      <c r="F353" t="s">
+        <v>32</v>
+      </c>
+      <c r="G353" t="s">
+        <v>32</v>
+      </c>
+      <c r="H353" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="B356" t="s">
+        <v>534</v>
+      </c>
+      <c r="C356" t="n">
         <v>3.449</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D356" t="s">
         <v>143</v>
       </c>
-      <c r="E352" t="s">
-        <v>490</v>
-      </c>
-      <c r="F352" t="s">
+      <c r="E356" t="s">
+        <v>493</v>
+      </c>
+      <c r="F356" t="s">
         <v>288</v>
       </c>
-      <c r="G352" t="s">
-        <v>32</v>
-      </c>
-      <c r="H352" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8">
-      <c r="A354" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
-      <c r="B355" t="s">
-        <v>553</v>
-      </c>
-      <c r="C355" t="n">
+      <c r="G356" t="s">
+        <v>32</v>
+      </c>
+      <c r="H356" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="A358" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="B359" t="s">
+        <v>559</v>
+      </c>
+      <c r="C359" t="n">
         <v>3.45</v>
       </c>
-      <c r="D355" t="s">
-        <v>490</v>
-      </c>
-      <c r="E355" t="s">
-        <v>489</v>
-      </c>
-      <c r="F355" t="s">
-        <v>32</v>
-      </c>
-      <c r="G355" t="s">
-        <v>32</v>
-      </c>
-      <c r="H355" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8">
-      <c r="A357" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
-      <c r="B358" t="s">
-        <v>555</v>
-      </c>
-      <c r="C358" t="n">
+      <c r="D359" t="s">
+        <v>493</v>
+      </c>
+      <c r="E359" t="s">
+        <v>492</v>
+      </c>
+      <c r="F359" t="s">
+        <v>32</v>
+      </c>
+      <c r="G359" t="s">
+        <v>32</v>
+      </c>
+      <c r="H359" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="B362" t="s">
+        <v>561</v>
+      </c>
+      <c r="C362" t="n">
         <v>3.21</v>
       </c>
-      <c r="D358" t="s">
-        <v>556</v>
-      </c>
-      <c r="E358" t="s">
-        <v>557</v>
-      </c>
-      <c r="F358" t="s">
-        <v>32</v>
-      </c>
-      <c r="G358" t="s">
-        <v>427</v>
-      </c>
-      <c r="H358" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
-      <c r="A360" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8">
-      <c r="B361" t="s">
-        <v>559</v>
-      </c>
-      <c r="C361" t="n">
+      <c r="D362" t="s">
+        <v>562</v>
+      </c>
+      <c r="E362" t="s">
+        <v>563</v>
+      </c>
+      <c r="F362" t="s">
+        <v>32</v>
+      </c>
+      <c r="G362" t="s">
+        <v>432</v>
+      </c>
+      <c r="H362" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="B365" t="s">
+        <v>565</v>
+      </c>
+      <c r="C365" t="n">
         <v>3.72</v>
       </c>
-      <c r="D361" t="s">
-        <v>323</v>
-      </c>
-      <c r="E361" t="s">
+      <c r="D365" t="s">
+        <v>326</v>
+      </c>
+      <c r="E365" t="s">
         <v>141</v>
       </c>
-      <c r="F361" t="s">
-        <v>32</v>
-      </c>
-      <c r="G361" t="s">
-        <v>32</v>
-      </c>
-      <c r="H361" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
-      <c r="A363" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8">
-      <c r="B364" t="s">
-        <v>561</v>
-      </c>
-      <c r="C364" t="n">
-        <v>3.308</v>
-      </c>
-      <c r="D364" t="s">
-        <v>80</v>
-      </c>
-      <c r="E364" t="s">
-        <v>562</v>
-      </c>
-      <c r="F364" t="s">
-        <v>32</v>
-      </c>
-      <c r="G364" t="s">
-        <v>32</v>
-      </c>
-      <c r="H364" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8">
-      <c r="A366" t="s">
-        <v>563</v>
+      <c r="F365" t="s">
+        <v>32</v>
+      </c>
+      <c r="G365" t="s">
+        <v>32</v>
+      </c>
+      <c r="H365" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="367" spans="1:8">
-      <c r="B367" t="s">
-        <v>564</v>
-      </c>
-      <c r="C367" t="n">
-        <v>3.636</v>
-      </c>
-      <c r="D367" t="s">
-        <v>565</v>
-      </c>
-      <c r="E367" t="s">
+      <c r="A367" t="s">
         <v>566</v>
-      </c>
-      <c r="F367" t="s">
-        <v>567</v>
-      </c>
-      <c r="G367" t="s">
-        <v>32</v>
-      </c>
-      <c r="H367" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="368" spans="1:8">
       <c r="B368" t="s">
+        <v>567</v>
+      </c>
+      <c r="C368" t="n">
+        <v>3.308</v>
+      </c>
+      <c r="D368" t="s">
+        <v>80</v>
+      </c>
+      <c r="E368" t="s">
         <v>568</v>
       </c>
-      <c r="C368" t="n">
+      <c r="F368" t="s">
+        <v>32</v>
+      </c>
+      <c r="G368" t="s">
+        <v>32</v>
+      </c>
+      <c r="H368" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
+      <c r="A370" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="B371" t="s">
+        <v>570</v>
+      </c>
+      <c r="C371" t="n">
+        <v>3.636</v>
+      </c>
+      <c r="D371" t="s">
+        <v>571</v>
+      </c>
+      <c r="E371" t="s">
+        <v>572</v>
+      </c>
+      <c r="F371" t="s">
+        <v>573</v>
+      </c>
+      <c r="G371" t="s">
+        <v>32</v>
+      </c>
+      <c r="H371" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
+      <c r="B372" t="s">
+        <v>574</v>
+      </c>
+      <c r="C372" t="n">
         <v>3.917</v>
       </c>
-      <c r="D368" t="s">
-        <v>569</v>
-      </c>
-      <c r="E368" t="s">
-        <v>570</v>
-      </c>
-      <c r="F368" t="s">
-        <v>32</v>
-      </c>
-      <c r="G368" t="s">
-        <v>32</v>
-      </c>
-      <c r="H368" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8">
-      <c r="B369" t="s">
-        <v>571</v>
-      </c>
-      <c r="C369" t="n">
-        <v>3.476</v>
-      </c>
-      <c r="D369" t="s">
-        <v>572</v>
-      </c>
-      <c r="E369" t="s">
-        <v>573</v>
-      </c>
-      <c r="F369" t="s">
-        <v>32</v>
-      </c>
-      <c r="G369" t="s">
-        <v>32</v>
-      </c>
-      <c r="H369" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8">
-      <c r="B370" t="s">
-        <v>574</v>
-      </c>
-      <c r="C370" t="n">
-        <v>3.543</v>
-      </c>
-      <c r="D370" t="s">
+      <c r="D372" t="s">
         <v>575</v>
       </c>
-      <c r="E370" t="s">
+      <c r="E372" t="s">
         <v>576</v>
       </c>
-      <c r="F370" t="s">
-        <v>519</v>
-      </c>
-      <c r="G370" t="s">
-        <v>32</v>
-      </c>
-      <c r="H370" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8">
-      <c r="A372" t="s">
-        <v>577</v>
+      <c r="F372" t="s">
+        <v>32</v>
+      </c>
+      <c r="G372" t="s">
+        <v>32</v>
+      </c>
+      <c r="H372" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="373" spans="1:8">
       <c r="B373" t="s">
+        <v>577</v>
+      </c>
+      <c r="C373" t="n">
+        <v>3.476</v>
+      </c>
+      <c r="D373" t="s">
         <v>578</v>
       </c>
-      <c r="C373" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D373" t="s">
+      <c r="E373" t="s">
         <v>579</v>
       </c>
-      <c r="E373" t="s">
+      <c r="F373" t="s">
+        <v>32</v>
+      </c>
+      <c r="G373" t="s">
+        <v>32</v>
+      </c>
+      <c r="H373" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
+      <c r="B374" t="s">
         <v>580</v>
       </c>
-      <c r="F373" t="s">
-        <v>318</v>
-      </c>
-      <c r="G373" t="s">
+      <c r="C374" t="n">
+        <v>3.543</v>
+      </c>
+      <c r="D374" t="s">
         <v>581</v>
       </c>
-      <c r="H373" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8">
-      <c r="A375" t="s">
+      <c r="E374" t="s">
         <v>582</v>
       </c>
+      <c r="F374" t="s">
+        <v>522</v>
+      </c>
+      <c r="G374" t="s">
+        <v>32</v>
+      </c>
+      <c r="H374" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="376" spans="1:8">
-      <c r="B376" t="s">
+      <c r="A376" t="s">
         <v>583</v>
-      </c>
-      <c r="C376" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="D376" t="s">
-        <v>584</v>
-      </c>
-      <c r="E376" t="s">
-        <v>430</v>
-      </c>
-      <c r="F376" t="s">
-        <v>32</v>
-      </c>
-      <c r="G376" t="s">
-        <v>32</v>
-      </c>
-      <c r="H376" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="377" spans="1:8">
       <c r="B377" t="s">
-        <v>401</v>
+        <v>584</v>
       </c>
       <c r="C377" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D377" t="s">
+        <v>585</v>
+      </c>
+      <c r="E377" t="s">
+        <v>290</v>
+      </c>
+      <c r="F377" t="s">
+        <v>321</v>
+      </c>
+      <c r="G377" t="s">
+        <v>586</v>
+      </c>
+      <c r="H377" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
+      <c r="A379" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="B380" t="s">
+        <v>588</v>
+      </c>
+      <c r="C380" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D380" t="s">
+        <v>589</v>
+      </c>
+      <c r="E380" t="s">
+        <v>428</v>
+      </c>
+      <c r="F380" t="s">
+        <v>32</v>
+      </c>
+      <c r="G380" t="s">
+        <v>32</v>
+      </c>
+      <c r="H380" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="B381" t="s">
+        <v>404</v>
+      </c>
+      <c r="C381" t="n">
         <v>3.36</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D381" t="s">
         <v>55</v>
       </c>
-      <c r="E377" t="s">
-        <v>585</v>
-      </c>
-      <c r="F377" t="s">
+      <c r="E381" t="s">
+        <v>590</v>
+      </c>
+      <c r="F381" t="s">
         <v>118</v>
       </c>
-      <c r="G377" t="s">
-        <v>32</v>
-      </c>
-      <c r="H377" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8">
-      <c r="B378" t="s">
-        <v>586</v>
-      </c>
-      <c r="C378" t="n">
-        <v>3</v>
-      </c>
-      <c r="D378" t="s">
-        <v>56</v>
-      </c>
-      <c r="E378" t="s">
-        <v>587</v>
-      </c>
-      <c r="F378" t="s">
-        <v>392</v>
-      </c>
-      <c r="G378" t="s">
-        <v>570</v>
-      </c>
-      <c r="H378" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8">
-      <c r="B379" t="s">
-        <v>402</v>
-      </c>
-      <c r="C379" t="n">
-        <v>2.983</v>
-      </c>
-      <c r="D379" t="s">
-        <v>588</v>
-      </c>
-      <c r="E379" t="s">
-        <v>589</v>
-      </c>
-      <c r="F379" t="s">
-        <v>392</v>
-      </c>
-      <c r="G379" t="s">
-        <v>590</v>
-      </c>
-      <c r="H379" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8">
-      <c r="A381" t="s">
-        <v>592</v>
+      <c r="G381" t="s">
+        <v>32</v>
+      </c>
+      <c r="H381" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="382" spans="1:8">
       <c r="B382" t="s">
-        <v>401</v>
+        <v>591</v>
       </c>
       <c r="C382" t="n">
+        <v>3</v>
+      </c>
+      <c r="D382" t="s">
+        <v>56</v>
+      </c>
+      <c r="E382" t="s">
+        <v>592</v>
+      </c>
+      <c r="F382" t="s">
+        <v>395</v>
+      </c>
+      <c r="G382" t="s">
+        <v>576</v>
+      </c>
+      <c r="H382" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="B383" t="s">
+        <v>405</v>
+      </c>
+      <c r="C383" t="n">
+        <v>2.983</v>
+      </c>
+      <c r="D383" t="s">
+        <v>593</v>
+      </c>
+      <c r="E383" t="s">
+        <v>594</v>
+      </c>
+      <c r="F383" t="s">
+        <v>395</v>
+      </c>
+      <c r="G383" t="s">
+        <v>595</v>
+      </c>
+      <c r="H383" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
+      <c r="A385" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
+      <c r="B386" t="s">
+        <v>404</v>
+      </c>
+      <c r="C386" t="n">
         <v>3.0625</v>
       </c>
-      <c r="D382" t="s">
-        <v>593</v>
-      </c>
-      <c r="E382" t="s">
-        <v>594</v>
-      </c>
-      <c r="F382" t="s">
+      <c r="D386" t="s">
+        <v>598</v>
+      </c>
+      <c r="E386" t="s">
+        <v>599</v>
+      </c>
+      <c r="F386" t="s">
         <v>54</v>
       </c>
-      <c r="G382" t="s">
-        <v>32</v>
-      </c>
-      <c r="H382" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8">
-      <c r="A384" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8">
-      <c r="B385" t="s">
-        <v>597</v>
-      </c>
-      <c r="C385" t="n">
+      <c r="G386" t="s">
+        <v>32</v>
+      </c>
+      <c r="H386" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="A388" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
+      <c r="B389" t="s">
+        <v>602</v>
+      </c>
+      <c r="C389" t="n">
         <v>3.4825</v>
       </c>
-      <c r="D385" t="s">
-        <v>598</v>
-      </c>
-      <c r="E385" t="s">
-        <v>599</v>
-      </c>
-      <c r="F385" t="s">
-        <v>600</v>
-      </c>
-      <c r="G385" t="s">
-        <v>32</v>
-      </c>
-      <c r="H385" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8">
-      <c r="A387" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8">
-      <c r="B388" t="s">
-        <v>522</v>
-      </c>
-      <c r="C388" t="n">
+      <c r="D389" t="s">
+        <v>603</v>
+      </c>
+      <c r="E389" t="s">
+        <v>604</v>
+      </c>
+      <c r="F389" t="s">
+        <v>605</v>
+      </c>
+      <c r="G389" t="s">
+        <v>32</v>
+      </c>
+      <c r="H389" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
+      <c r="A391" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
+      <c r="B392" t="s">
+        <v>525</v>
+      </c>
+      <c r="C392" t="n">
         <v>3.288</v>
       </c>
-      <c r="D388" t="s">
-        <v>602</v>
-      </c>
-      <c r="E388" t="s">
+      <c r="D392" t="s">
+        <v>607</v>
+      </c>
+      <c r="E392" t="s">
         <v>51</v>
       </c>
-      <c r="F388" t="s">
-        <v>603</v>
-      </c>
-      <c r="G388" t="s">
-        <v>32</v>
-      </c>
-      <c r="H388" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8">
-      <c r="A390" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8">
-      <c r="B391" t="s">
-        <v>605</v>
-      </c>
-      <c r="C391" t="n">
-        <v>3.429</v>
-      </c>
-      <c r="D391" t="s">
-        <v>572</v>
-      </c>
-      <c r="E391" t="s">
-        <v>572</v>
-      </c>
-      <c r="F391" t="s">
-        <v>606</v>
-      </c>
-      <c r="G391" t="s">
-        <v>32</v>
-      </c>
-      <c r="H391" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8">
-      <c r="A393" t="s">
-        <v>607</v>
+      <c r="F392" t="s">
+        <v>608</v>
+      </c>
+      <c r="G392" t="s">
+        <v>32</v>
+      </c>
+      <c r="H392" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="394" spans="1:8">
-      <c r="B394" t="s">
-        <v>608</v>
-      </c>
-      <c r="C394" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="D394" t="s">
-        <v>218</v>
-      </c>
-      <c r="E394" t="s">
-        <v>219</v>
-      </c>
-      <c r="F394" t="s">
-        <v>32</v>
-      </c>
-      <c r="G394" t="s">
-        <v>32</v>
-      </c>
-      <c r="H394" t="s">
-        <v>32</v>
+      <c r="A394" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="395" spans="1:8">
       <c r="B395" t="s">
-        <v>561</v>
+        <v>610</v>
       </c>
       <c r="C395" t="n">
-        <v>3.1887</v>
+        <v>3.429</v>
       </c>
       <c r="D395" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
       <c r="E395" t="s">
-        <v>143</v>
+        <v>578</v>
       </c>
       <c r="F395" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G395" t="s">
-        <v>595</v>
+        <v>32</v>
       </c>
       <c r="H395" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
-      <c r="B396" t="s">
-        <v>611</v>
-      </c>
-      <c r="C396" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="D396" t="s">
+    <row r="397" spans="1:8">
+      <c r="A397" t="s">
         <v>612</v>
-      </c>
-      <c r="E396" t="s">
-        <v>613</v>
-      </c>
-      <c r="F396" t="s">
-        <v>570</v>
-      </c>
-      <c r="G396" t="s">
-        <v>32</v>
-      </c>
-      <c r="H396" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8">
-      <c r="B397" t="s">
-        <v>614</v>
-      </c>
-      <c r="C397" t="n">
-        <v>3.186</v>
-      </c>
-      <c r="D397" t="s">
-        <v>615</v>
-      </c>
-      <c r="E397" t="s">
-        <v>616</v>
-      </c>
-      <c r="F397" t="s">
-        <v>617</v>
-      </c>
-      <c r="G397" t="s">
-        <v>32</v>
-      </c>
-      <c r="H397" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="398" spans="1:8">
       <c r="B398" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C398" t="n">
-        <v>3.182</v>
+        <v>3.714</v>
       </c>
       <c r="D398" t="s">
-        <v>619</v>
+        <v>218</v>
       </c>
       <c r="E398" t="s">
-        <v>620</v>
+        <v>219</v>
       </c>
       <c r="F398" t="s">
-        <v>621</v>
+        <v>32</v>
       </c>
       <c r="G398" t="s">
-        <v>355</v>
+        <v>32</v>
       </c>
       <c r="H398" t="s">
         <v>32</v>
@@ -7477,129 +7472,170 @@
     </row>
     <row r="399" spans="1:8">
       <c r="B399" t="s">
+        <v>567</v>
+      </c>
+      <c r="C399" t="n">
+        <v>3.1887</v>
+      </c>
+      <c r="D399" t="s">
+        <v>614</v>
+      </c>
+      <c r="E399" t="s">
+        <v>143</v>
+      </c>
+      <c r="F399" t="s">
+        <v>615</v>
+      </c>
+      <c r="G399" t="s">
+        <v>600</v>
+      </c>
+      <c r="H399" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
+      <c r="B400" t="s">
+        <v>616</v>
+      </c>
+      <c r="C400" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D400" t="s">
+        <v>617</v>
+      </c>
+      <c r="E400" t="s">
+        <v>618</v>
+      </c>
+      <c r="F400" t="s">
+        <v>576</v>
+      </c>
+      <c r="G400" t="s">
+        <v>32</v>
+      </c>
+      <c r="H400" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
+      <c r="B401" t="s">
+        <v>619</v>
+      </c>
+      <c r="C401" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="D401" t="s">
+        <v>620</v>
+      </c>
+      <c r="E401" t="s">
+        <v>621</v>
+      </c>
+      <c r="F401" t="s">
         <v>622</v>
       </c>
-      <c r="C399" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D399" t="s">
-        <v>344</v>
-      </c>
-      <c r="E399" t="s">
-        <v>511</v>
-      </c>
-      <c r="F399" t="s">
-        <v>623</v>
-      </c>
-      <c r="G399" t="s">
-        <v>32</v>
-      </c>
-      <c r="H399" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8">
-      <c r="A401" t="s">
-        <v>624</v>
+      <c r="G401" t="s">
+        <v>32</v>
+      </c>
+      <c r="H401" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="402" spans="1:8">
       <c r="B402" t="s">
-        <v>522</v>
+        <v>623</v>
       </c>
       <c r="C402" t="n">
+        <v>3.182</v>
+      </c>
+      <c r="D402" t="s">
+        <v>624</v>
+      </c>
+      <c r="E402" t="s">
+        <v>625</v>
+      </c>
+      <c r="F402" t="s">
+        <v>626</v>
+      </c>
+      <c r="G402" t="s">
+        <v>358</v>
+      </c>
+      <c r="H402" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
+      <c r="B403" t="s">
+        <v>627</v>
+      </c>
+      <c r="C403" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D403" t="s">
+        <v>347</v>
+      </c>
+      <c r="E403" t="s">
+        <v>514</v>
+      </c>
+      <c r="F403" t="s">
+        <v>628</v>
+      </c>
+      <c r="G403" t="s">
+        <v>32</v>
+      </c>
+      <c r="H403" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
+      <c r="A405" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
+      <c r="B406" t="s">
+        <v>525</v>
+      </c>
+      <c r="C406" t="n">
         <v>3.12</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D406" t="s">
         <v>257</v>
       </c>
-      <c r="E402" t="s">
-        <v>323</v>
-      </c>
-      <c r="F402" t="s">
+      <c r="E406" t="s">
+        <v>326</v>
+      </c>
+      <c r="F406" t="s">
         <v>121</v>
       </c>
-      <c r="G402" t="s">
-        <v>32</v>
-      </c>
-      <c r="H402" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8">
-      <c r="A404" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8">
-      <c r="B405" t="s">
-        <v>626</v>
-      </c>
-      <c r="C405" t="n">
-        <v>3.2145</v>
-      </c>
-      <c r="D405" t="s">
-        <v>627</v>
-      </c>
-      <c r="E405" t="s">
-        <v>628</v>
-      </c>
-      <c r="F405" t="s">
-        <v>629</v>
-      </c>
-      <c r="G405" t="s">
+      <c r="G406" t="s">
+        <v>32</v>
+      </c>
+      <c r="H406" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
+      <c r="A408" t="s">
         <v>630</v>
-      </c>
-      <c r="H405" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8">
-      <c r="A407" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8">
-      <c r="B408" t="s">
-        <v>632</v>
-      </c>
-      <c r="C408" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D408" t="s">
-        <v>140</v>
-      </c>
-      <c r="E408" t="s">
-        <v>257</v>
-      </c>
-      <c r="F408" t="s">
-        <v>257</v>
-      </c>
-      <c r="G408" t="s">
-        <v>32</v>
-      </c>
-      <c r="H408" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="409" spans="1:8">
       <c r="B409" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
       <c r="C409" t="n">
-        <v>4</v>
+        <v>3.2145</v>
       </c>
       <c r="D409" t="s">
-        <v>230</v>
+        <v>632</v>
       </c>
       <c r="E409" t="s">
-        <v>32</v>
+        <v>633</v>
       </c>
       <c r="F409" t="s">
-        <v>32</v>
+        <v>634</v>
       </c>
       <c r="G409" t="s">
-        <v>32</v>
+        <v>635</v>
       </c>
       <c r="H409" t="s">
         <v>32</v>
@@ -7607,24 +7643,24 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="412" spans="1:8">
       <c r="B412" t="s">
-        <v>583</v>
+        <v>637</v>
       </c>
       <c r="C412" t="n">
-        <v>3.818</v>
+        <v>3.4</v>
       </c>
       <c r="D412" t="s">
-        <v>634</v>
+        <v>140</v>
       </c>
       <c r="E412" t="s">
-        <v>635</v>
+        <v>257</v>
       </c>
       <c r="F412" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="G412" t="s">
         <v>32</v>
@@ -7633,49 +7669,49 @@
         <v>32</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
-      <c r="A414" t="s">
-        <v>636</v>
+    <row r="413" spans="1:8">
+      <c r="B413" t="s">
+        <v>525</v>
+      </c>
+      <c r="C413" t="n">
+        <v>4</v>
+      </c>
+      <c r="D413" t="s">
+        <v>230</v>
+      </c>
+      <c r="E413" t="s">
+        <v>32</v>
+      </c>
+      <c r="F413" t="s">
+        <v>32</v>
+      </c>
+      <c r="G413" t="s">
+        <v>32</v>
+      </c>
+      <c r="H413" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="415" spans="1:8">
-      <c r="B415" t="s">
-        <v>637</v>
-      </c>
-      <c r="C415" t="n">
-        <v>3.521</v>
-      </c>
-      <c r="D415" t="s">
+      <c r="A415" t="s">
         <v>638</v>
-      </c>
-      <c r="E415" t="s">
-        <v>103</v>
-      </c>
-      <c r="F415" t="s">
-        <v>639</v>
-      </c>
-      <c r="G415" t="s">
-        <v>32</v>
-      </c>
-      <c r="H415" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="416" spans="1:8">
       <c r="B416" t="s">
+        <v>588</v>
+      </c>
+      <c r="C416" t="n">
+        <v>3.818</v>
+      </c>
+      <c r="D416" t="s">
+        <v>639</v>
+      </c>
+      <c r="E416" t="s">
         <v>640</v>
       </c>
-      <c r="C416" t="n">
-        <v>3.5485</v>
-      </c>
-      <c r="D416" t="s">
-        <v>641</v>
-      </c>
-      <c r="E416" t="s">
-        <v>343</v>
-      </c>
       <c r="F416" t="s">
-        <v>623</v>
+        <v>32</v>
       </c>
       <c r="G416" t="s">
         <v>32</v>
@@ -7686,75 +7722,75 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="419" spans="1:8">
       <c r="B419" t="s">
+        <v>642</v>
+      </c>
+      <c r="C419" t="n">
+        <v>3.521</v>
+      </c>
+      <c r="D419" t="s">
         <v>643</v>
       </c>
-      <c r="C419" t="n">
-        <v>3.435</v>
-      </c>
-      <c r="D419" t="s">
+      <c r="E419" t="s">
+        <v>103</v>
+      </c>
+      <c r="F419" t="s">
         <v>644</v>
       </c>
-      <c r="E419" t="s">
-        <v>85</v>
-      </c>
-      <c r="F419" t="s">
+      <c r="G419" t="s">
+        <v>32</v>
+      </c>
+      <c r="H419" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
+      <c r="B420" t="s">
         <v>645</v>
       </c>
-      <c r="G419" t="s">
-        <v>32</v>
-      </c>
-      <c r="H419" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8">
-      <c r="A421" t="s">
+      <c r="C420" t="n">
+        <v>3.5485</v>
+      </c>
+      <c r="D420" t="s">
         <v>646</v>
       </c>
+      <c r="E420" t="s">
+        <v>346</v>
+      </c>
+      <c r="F420" t="s">
+        <v>628</v>
+      </c>
+      <c r="G420" t="s">
+        <v>32</v>
+      </c>
+      <c r="H420" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="422" spans="1:8">
-      <c r="B422" t="s">
+      <c r="A422" t="s">
         <v>647</v>
-      </c>
-      <c r="C422" t="n">
-        <v>3.659</v>
-      </c>
-      <c r="D422" t="s">
-        <v>648</v>
-      </c>
-      <c r="E422" t="s">
-        <v>649</v>
-      </c>
-      <c r="F422" t="s">
-        <v>32</v>
-      </c>
-      <c r="G422" t="s">
-        <v>32</v>
-      </c>
-      <c r="H422" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="423" spans="1:8">
       <c r="B423" t="s">
+        <v>648</v>
+      </c>
+      <c r="C423" t="n">
+        <v>3.435</v>
+      </c>
+      <c r="D423" t="s">
+        <v>649</v>
+      </c>
+      <c r="E423" t="s">
+        <v>85</v>
+      </c>
+      <c r="F423" t="s">
         <v>650</v>
-      </c>
-      <c r="C423" t="n">
-        <v>3.542</v>
-      </c>
-      <c r="D423" t="s">
-        <v>651</v>
-      </c>
-      <c r="E423" t="s">
-        <v>587</v>
-      </c>
-      <c r="F423" t="s">
-        <v>105</v>
       </c>
       <c r="G423" t="s">
         <v>32</v>
@@ -7765,159 +7801,159 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="426" spans="1:8">
       <c r="B426" t="s">
+        <v>652</v>
+      </c>
+      <c r="C426" t="n">
+        <v>3.659</v>
+      </c>
+      <c r="D426" t="s">
         <v>653</v>
       </c>
-      <c r="C426" t="n">
+      <c r="E426" t="s">
+        <v>654</v>
+      </c>
+      <c r="F426" t="s">
+        <v>32</v>
+      </c>
+      <c r="G426" t="s">
+        <v>32</v>
+      </c>
+      <c r="H426" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="B427" t="s">
+        <v>655</v>
+      </c>
+      <c r="C427" t="n">
+        <v>3.542</v>
+      </c>
+      <c r="D427" t="s">
+        <v>656</v>
+      </c>
+      <c r="E427" t="s">
+        <v>592</v>
+      </c>
+      <c r="F427" t="s">
+        <v>105</v>
+      </c>
+      <c r="G427" t="s">
+        <v>32</v>
+      </c>
+      <c r="H427" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="A429" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
+      <c r="B430" t="s">
+        <v>658</v>
+      </c>
+      <c r="C430" t="n">
         <v>3.396</v>
       </c>
-      <c r="D426" t="s">
+      <c r="D430" t="s">
         <v>103</v>
       </c>
-      <c r="E426" t="s">
+      <c r="E430" t="s">
         <v>171</v>
       </c>
-      <c r="F426" t="s">
-        <v>318</v>
-      </c>
-      <c r="G426" t="s">
-        <v>32</v>
-      </c>
-      <c r="H426" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8">
-      <c r="A428" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8">
-      <c r="B429" t="s">
-        <v>647</v>
-      </c>
-      <c r="C429" t="n">
+      <c r="F430" t="s">
+        <v>321</v>
+      </c>
+      <c r="G430" t="s">
+        <v>32</v>
+      </c>
+      <c r="H430" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="A432" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
+      <c r="B433" t="s">
+        <v>652</v>
+      </c>
+      <c r="C433" t="n">
         <v>3.4605</v>
       </c>
-      <c r="D429" t="s">
-        <v>655</v>
-      </c>
-      <c r="E429" t="s">
+      <c r="D433" t="s">
+        <v>660</v>
+      </c>
+      <c r="E433" t="s">
         <v>154</v>
       </c>
-      <c r="F429" t="s">
-        <v>32</v>
-      </c>
-      <c r="G429" t="s">
-        <v>32</v>
-      </c>
-      <c r="H429" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8">
-      <c r="A431" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8">
-      <c r="B432" t="s">
-        <v>555</v>
-      </c>
-      <c r="C432" t="n">
+      <c r="F433" t="s">
+        <v>32</v>
+      </c>
+      <c r="G433" t="s">
+        <v>32</v>
+      </c>
+      <c r="H433" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="A435" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="B436" t="s">
+        <v>561</v>
+      </c>
+      <c r="C436" t="n">
         <v>3.5</v>
       </c>
-      <c r="D432" t="s">
-        <v>638</v>
-      </c>
-      <c r="E432" t="s">
-        <v>657</v>
-      </c>
-      <c r="F432" t="s">
-        <v>581</v>
-      </c>
-      <c r="G432" t="s">
-        <v>32</v>
-      </c>
-      <c r="H432" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8">
-      <c r="A434" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8">
-      <c r="B435" t="s">
-        <v>650</v>
-      </c>
-      <c r="C435" t="n">
-        <v>4</v>
-      </c>
-      <c r="D435" t="s">
-        <v>230</v>
-      </c>
-      <c r="E435" t="s">
-        <v>32</v>
-      </c>
-      <c r="F435" t="s">
-        <v>32</v>
-      </c>
-      <c r="G435" t="s">
-        <v>32</v>
-      </c>
-      <c r="H435" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8">
-      <c r="A437" t="s">
-        <v>659</v>
+      <c r="D436" t="s">
+        <v>643</v>
+      </c>
+      <c r="E436" t="s">
+        <v>662</v>
+      </c>
+      <c r="F436" t="s">
+        <v>586</v>
+      </c>
+      <c r="G436" t="s">
+        <v>32</v>
+      </c>
+      <c r="H436" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="438" spans="1:8">
-      <c r="B438" t="s">
-        <v>660</v>
-      </c>
-      <c r="C438" t="n">
-        <v>3.531</v>
-      </c>
-      <c r="D438" t="s">
-        <v>651</v>
-      </c>
-      <c r="E438" t="s">
-        <v>661</v>
-      </c>
-      <c r="F438" t="s">
-        <v>581</v>
-      </c>
-      <c r="G438" t="s">
-        <v>32</v>
-      </c>
-      <c r="H438" t="s">
-        <v>32</v>
+      <c r="A438" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="439" spans="1:8">
       <c r="B439" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="C439" t="n">
-        <v>3.63</v>
+        <v>4</v>
       </c>
       <c r="D439" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="E439" t="s">
-        <v>662</v>
+        <v>32</v>
       </c>
       <c r="F439" t="s">
-        <v>663</v>
+        <v>32</v>
       </c>
       <c r="G439" t="s">
         <v>32</v>
@@ -7936,400 +7972,400 @@
         <v>665</v>
       </c>
       <c r="C442" t="n">
+        <v>3.531</v>
+      </c>
+      <c r="D442" t="s">
+        <v>656</v>
+      </c>
+      <c r="E442" t="s">
+        <v>291</v>
+      </c>
+      <c r="F442" t="s">
+        <v>586</v>
+      </c>
+      <c r="G442" t="s">
+        <v>32</v>
+      </c>
+      <c r="H442" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
+      <c r="B443" t="s">
+        <v>655</v>
+      </c>
+      <c r="C443" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="D443" t="s">
+        <v>137</v>
+      </c>
+      <c r="E443" t="s">
+        <v>666</v>
+      </c>
+      <c r="F443" t="s">
+        <v>667</v>
+      </c>
+      <c r="G443" t="s">
+        <v>32</v>
+      </c>
+      <c r="H443" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
+      <c r="A445" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
+      <c r="B446" t="s">
+        <v>669</v>
+      </c>
+      <c r="C446" t="n">
         <v>3.97</v>
       </c>
-      <c r="D442" t="s">
-        <v>666</v>
-      </c>
-      <c r="E442" t="s">
+      <c r="D446" t="s">
+        <v>670</v>
+      </c>
+      <c r="E446" t="s">
         <v>127</v>
       </c>
-      <c r="F442" t="s">
-        <v>32</v>
-      </c>
-      <c r="G442" t="s">
-        <v>32</v>
-      </c>
-      <c r="H442" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8">
-      <c r="A444" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="445" spans="1:8">
-      <c r="B445" t="s">
-        <v>668</v>
-      </c>
-      <c r="C445" t="n">
+      <c r="F446" t="s">
+        <v>32</v>
+      </c>
+      <c r="G446" t="s">
+        <v>32</v>
+      </c>
+      <c r="H446" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
+      <c r="A448" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="B449" t="s">
+        <v>672</v>
+      </c>
+      <c r="C449" t="n">
         <v>3.692</v>
       </c>
-      <c r="D445" t="s">
-        <v>562</v>
-      </c>
-      <c r="E445" t="s">
+      <c r="D449" t="s">
+        <v>568</v>
+      </c>
+      <c r="E449" t="s">
         <v>80</v>
       </c>
-      <c r="F445" t="s">
-        <v>32</v>
-      </c>
-      <c r="G445" t="s">
-        <v>32</v>
-      </c>
-      <c r="H445" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8">
-      <c r="A447" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8">
-      <c r="B448" t="s">
-        <v>660</v>
-      </c>
-      <c r="C448" t="n">
+      <c r="F449" t="s">
+        <v>32</v>
+      </c>
+      <c r="G449" t="s">
+        <v>32</v>
+      </c>
+      <c r="H449" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
+      <c r="A451" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
+      <c r="B452" t="s">
+        <v>665</v>
+      </c>
+      <c r="C452" t="n">
         <v>3.833</v>
       </c>
-      <c r="D448" t="s">
-        <v>393</v>
-      </c>
-      <c r="E448" t="s">
-        <v>392</v>
-      </c>
-      <c r="F448" t="s">
-        <v>32</v>
-      </c>
-      <c r="G448" t="s">
-        <v>32</v>
-      </c>
-      <c r="H448" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8">
-      <c r="A450" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8">
-      <c r="B451" t="s">
-        <v>559</v>
-      </c>
-      <c r="C451" t="n">
+      <c r="D452" t="s">
+        <v>396</v>
+      </c>
+      <c r="E452" t="s">
+        <v>395</v>
+      </c>
+      <c r="F452" t="s">
+        <v>32</v>
+      </c>
+      <c r="G452" t="s">
+        <v>32</v>
+      </c>
+      <c r="H452" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
+      <c r="A454" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
+      <c r="B455" t="s">
+        <v>565</v>
+      </c>
+      <c r="C455" t="n">
         <v>3.714</v>
       </c>
-      <c r="D451" t="s">
+      <c r="D455" t="s">
         <v>218</v>
       </c>
-      <c r="E451" t="s">
+      <c r="E455" t="s">
         <v>219</v>
       </c>
-      <c r="F451" t="s">
-        <v>32</v>
-      </c>
-      <c r="G451" t="s">
-        <v>32</v>
-      </c>
-      <c r="H451" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8">
-      <c r="A453" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8">
-      <c r="B454" t="s">
-        <v>618</v>
-      </c>
-      <c r="C454" t="n">
+      <c r="F455" t="s">
+        <v>32</v>
+      </c>
+      <c r="G455" t="s">
+        <v>32</v>
+      </c>
+      <c r="H455" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
+      <c r="A457" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
+      <c r="B458" t="s">
+        <v>623</v>
+      </c>
+      <c r="C458" t="n">
         <v>3.576</v>
       </c>
-      <c r="D454" t="s">
-        <v>672</v>
-      </c>
-      <c r="E454" t="s">
+      <c r="D458" t="s">
+        <v>676</v>
+      </c>
+      <c r="E458" t="s">
         <v>130</v>
       </c>
-      <c r="F454" t="s">
-        <v>32</v>
-      </c>
-      <c r="G454" t="s">
-        <v>32</v>
-      </c>
-      <c r="H454" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8">
-      <c r="A456" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8">
-      <c r="B457" t="s">
-        <v>578</v>
-      </c>
-      <c r="C457" t="n">
+      <c r="F458" t="s">
+        <v>32</v>
+      </c>
+      <c r="G458" t="s">
+        <v>32</v>
+      </c>
+      <c r="H458" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
+      <c r="A460" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
+      <c r="B461" t="s">
+        <v>555</v>
+      </c>
+      <c r="C461" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D461" t="s">
+        <v>678</v>
+      </c>
+      <c r="E461" t="s">
+        <v>156</v>
+      </c>
+      <c r="F461" t="s">
+        <v>32</v>
+      </c>
+      <c r="G461" t="s">
+        <v>32</v>
+      </c>
+      <c r="H461" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
+      <c r="A463" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
+      <c r="B464" t="s">
+        <v>584</v>
+      </c>
+      <c r="C464" t="n">
         <v>3.775</v>
       </c>
-      <c r="D457" t="s">
-        <v>674</v>
-      </c>
-      <c r="E457" t="s">
-        <v>675</v>
-      </c>
-      <c r="F457" t="s">
-        <v>32</v>
-      </c>
-      <c r="G457" t="s">
-        <v>32</v>
-      </c>
-      <c r="H457" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8">
-      <c r="A459" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="460" spans="1:8">
-      <c r="B460" t="s">
-        <v>382</v>
-      </c>
-      <c r="C460" t="n">
+      <c r="D464" t="s">
+        <v>680</v>
+      </c>
+      <c r="E464" t="s">
+        <v>681</v>
+      </c>
+      <c r="F464" t="s">
+        <v>32</v>
+      </c>
+      <c r="G464" t="s">
+        <v>32</v>
+      </c>
+      <c r="H464" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
+      <c r="A466" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
+      <c r="B467" t="s">
+        <v>385</v>
+      </c>
+      <c r="C467" t="n">
         <v>3.542</v>
       </c>
-      <c r="D460" t="s">
-        <v>677</v>
-      </c>
-      <c r="E460" t="s">
-        <v>678</v>
-      </c>
-      <c r="F460" t="s">
-        <v>679</v>
-      </c>
-      <c r="G460" t="s">
-        <v>32</v>
-      </c>
-      <c r="H460" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8">
-      <c r="A462" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="463" spans="1:8">
-      <c r="B463" t="s">
-        <v>681</v>
-      </c>
-      <c r="C463" t="n">
+      <c r="D467" t="s">
+        <v>683</v>
+      </c>
+      <c r="E467" t="s">
+        <v>684</v>
+      </c>
+      <c r="F467" t="s">
+        <v>685</v>
+      </c>
+      <c r="G467" t="s">
+        <v>32</v>
+      </c>
+      <c r="H467" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
+      <c r="A469" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
+      <c r="B470" t="s">
+        <v>687</v>
+      </c>
+      <c r="C470" t="n">
         <v>3.542</v>
       </c>
-      <c r="D463" t="s">
-        <v>682</v>
-      </c>
-      <c r="E463" t="s">
+      <c r="D470" t="s">
+        <v>688</v>
+      </c>
+      <c r="E470" t="s">
         <v>103</v>
       </c>
-      <c r="F463" t="s">
-        <v>32</v>
-      </c>
-      <c r="G463" t="s">
-        <v>32</v>
-      </c>
-      <c r="H463" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8">
-      <c r="A465" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="466" spans="1:8">
-      <c r="B466" t="s">
-        <v>578</v>
-      </c>
-      <c r="C466" t="n">
+      <c r="F470" t="s">
+        <v>32</v>
+      </c>
+      <c r="G470" t="s">
+        <v>32</v>
+      </c>
+      <c r="H470" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
+      <c r="A472" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
+      <c r="B473" t="s">
+        <v>584</v>
+      </c>
+      <c r="C473" t="n">
         <v>3.5</v>
       </c>
-      <c r="D466" t="s">
-        <v>684</v>
-      </c>
-      <c r="E466" t="s">
-        <v>685</v>
-      </c>
-      <c r="F466" t="s">
-        <v>686</v>
-      </c>
-      <c r="G466" t="s">
-        <v>32</v>
-      </c>
-      <c r="H466" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8">
-      <c r="A468" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8">
-      <c r="B469" t="s">
-        <v>688</v>
-      </c>
-      <c r="C469" t="n">
+      <c r="D473" t="s">
+        <v>690</v>
+      </c>
+      <c r="E473" t="s">
+        <v>691</v>
+      </c>
+      <c r="F473" t="s">
+        <v>692</v>
+      </c>
+      <c r="G473" t="s">
+        <v>32</v>
+      </c>
+      <c r="H473" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
+      <c r="A475" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
+      <c r="B476" t="s">
+        <v>694</v>
+      </c>
+      <c r="C476" t="n">
         <v>3.76</v>
       </c>
-      <c r="D469" t="s">
-        <v>689</v>
-      </c>
-      <c r="E469" t="s">
-        <v>690</v>
-      </c>
-      <c r="F469" t="s">
-        <v>32</v>
-      </c>
-      <c r="G469" t="s">
-        <v>32</v>
-      </c>
-      <c r="H469" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8">
-      <c r="A471" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8">
-      <c r="B472" t="s">
-        <v>692</v>
-      </c>
-      <c r="C472" t="n">
+      <c r="D476" t="s">
+        <v>695</v>
+      </c>
+      <c r="E476" t="s">
+        <v>696</v>
+      </c>
+      <c r="F476" t="s">
+        <v>32</v>
+      </c>
+      <c r="G476" t="s">
+        <v>32</v>
+      </c>
+      <c r="H476" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
+      <c r="A478" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
+      <c r="B479" t="s">
+        <v>698</v>
+      </c>
+      <c r="C479" t="n">
         <v>4</v>
       </c>
-      <c r="D472" t="s">
+      <c r="D479" t="s">
         <v>230</v>
       </c>
-      <c r="E472" t="s">
-        <v>32</v>
-      </c>
-      <c r="F472" t="s">
-        <v>32</v>
-      </c>
-      <c r="G472" t="s">
-        <v>32</v>
-      </c>
-      <c r="H472" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8">
-      <c r="A474" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="475" spans="1:8">
-      <c r="B475" t="s">
-        <v>586</v>
-      </c>
-      <c r="C475" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="D475" t="s">
-        <v>694</v>
-      </c>
-      <c r="E475" t="s">
-        <v>396</v>
-      </c>
-      <c r="F475" t="s">
-        <v>32</v>
-      </c>
-      <c r="G475" t="s">
-        <v>32</v>
-      </c>
-      <c r="H475" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8">
-      <c r="A477" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8">
-      <c r="B478" t="s">
-        <v>626</v>
-      </c>
-      <c r="C478" t="n">
-        <v>3.583</v>
-      </c>
-      <c r="D478" t="s">
-        <v>544</v>
-      </c>
-      <c r="E478" t="s">
-        <v>587</v>
-      </c>
-      <c r="F478" t="s">
-        <v>32</v>
-      </c>
-      <c r="G478" t="s">
-        <v>32</v>
-      </c>
-      <c r="H478" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8">
-      <c r="A480" t="s">
-        <v>696</v>
+      <c r="E479" t="s">
+        <v>32</v>
+      </c>
+      <c r="F479" t="s">
+        <v>32</v>
+      </c>
+      <c r="G479" t="s">
+        <v>32</v>
+      </c>
+      <c r="H479" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="481" spans="1:8">
-      <c r="B481" t="s">
-        <v>697</v>
-      </c>
-      <c r="C481" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D481" t="s">
-        <v>143</v>
-      </c>
-      <c r="E481" t="s">
-        <v>143</v>
-      </c>
-      <c r="F481" t="s">
-        <v>32</v>
-      </c>
-      <c r="G481" t="s">
-        <v>32</v>
-      </c>
-      <c r="H481" t="s">
-        <v>32</v>
+      <c r="A481" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="482" spans="1:8">
       <c r="B482" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="C482" t="n">
-        <v>3.601</v>
+        <v>3.875</v>
       </c>
       <c r="D482" t="s">
-        <v>376</v>
+        <v>700</v>
       </c>
       <c r="E482" t="s">
-        <v>546</v>
+        <v>399</v>
       </c>
       <c r="F482" t="s">
         <v>32</v>
@@ -8343,24 +8379,24 @@
     </row>
     <row r="484" spans="1:8">
       <c r="A484" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="485" spans="1:8">
       <c r="B485" t="s">
-        <v>688</v>
+        <v>631</v>
       </c>
       <c r="C485" t="n">
-        <v>3.3605</v>
+        <v>3.583</v>
       </c>
       <c r="D485" t="s">
-        <v>699</v>
+        <v>547</v>
       </c>
       <c r="E485" t="s">
-        <v>700</v>
+        <v>592</v>
       </c>
       <c r="F485" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c r="G485" t="s">
         <v>32</v>
@@ -8369,52 +8405,52 @@
         <v>32</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
-      <c r="B486" t="s">
-        <v>608</v>
-      </c>
-      <c r="C486" t="n">
-        <v>3.536</v>
-      </c>
-      <c r="D486" t="s">
-        <v>701</v>
-      </c>
-      <c r="E486" t="s">
+    <row r="487" spans="1:8">
+      <c r="A487" t="s">
         <v>702</v>
       </c>
-      <c r="F486" t="s">
-        <v>32</v>
-      </c>
-      <c r="G486" t="s">
-        <v>32</v>
-      </c>
-      <c r="H486" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="488" spans="1:8">
-      <c r="A488" t="s">
+      <c r="B488" t="s">
         <v>703</v>
+      </c>
+      <c r="C488" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D488" t="s">
+        <v>143</v>
+      </c>
+      <c r="E488" t="s">
+        <v>143</v>
+      </c>
+      <c r="F488" t="s">
+        <v>32</v>
+      </c>
+      <c r="G488" t="s">
+        <v>32</v>
+      </c>
+      <c r="H488" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="489" spans="1:8">
       <c r="B489" t="s">
-        <v>555</v>
+        <v>588</v>
       </c>
       <c r="C489" t="n">
-        <v>3.185</v>
+        <v>3.601</v>
       </c>
       <c r="D489" t="s">
-        <v>704</v>
+        <v>379</v>
       </c>
       <c r="E489" t="s">
-        <v>705</v>
+        <v>549</v>
       </c>
       <c r="F489" t="s">
-        <v>430</v>
+        <v>32</v>
       </c>
       <c r="G489" t="s">
-        <v>663</v>
+        <v>32</v>
       </c>
       <c r="H489" t="s">
         <v>32</v>
@@ -8422,24 +8458,24 @@
     </row>
     <row r="491" spans="1:8">
       <c r="A491" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="492" spans="1:8">
       <c r="B492" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="C492" t="n">
-        <v>3.972</v>
+        <v>3.3605</v>
       </c>
       <c r="D492" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E492" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F492" t="s">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="G492" t="s">
         <v>32</v>
@@ -8450,172 +8486,172 @@
     </row>
     <row r="493" spans="1:8">
       <c r="B493" t="s">
-        <v>710</v>
+        <v>613</v>
       </c>
       <c r="C493" t="n">
-        <v>3.6483</v>
+        <v>3.536</v>
       </c>
       <c r="D493" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E493" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F493" t="s">
-        <v>713</v>
+        <v>32</v>
       </c>
       <c r="G493" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H493" t="s">
-        <v>714</v>
+        <v>32</v>
       </c>
     </row>
     <row r="495" spans="1:8">
       <c r="A495" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="496" spans="1:8">
       <c r="B496" t="s">
+        <v>561</v>
+      </c>
+      <c r="C496" t="n">
+        <v>3.185</v>
+      </c>
+      <c r="D496" t="s">
+        <v>710</v>
+      </c>
+      <c r="E496" t="s">
+        <v>711</v>
+      </c>
+      <c r="F496" t="s">
+        <v>428</v>
+      </c>
+      <c r="G496" t="s">
+        <v>667</v>
+      </c>
+      <c r="H496" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="A498" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="B499" t="s">
+        <v>713</v>
+      </c>
+      <c r="C499" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="D499" t="s">
+        <v>714</v>
+      </c>
+      <c r="E499" t="s">
+        <v>715</v>
+      </c>
+      <c r="F499" t="s">
+        <v>32</v>
+      </c>
+      <c r="G499" t="s">
+        <v>32</v>
+      </c>
+      <c r="H499" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="B500" t="s">
         <v>716</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C500" t="n">
+        <v>3.6483</v>
+      </c>
+      <c r="D500" t="s">
+        <v>717</v>
+      </c>
+      <c r="E500" t="s">
+        <v>718</v>
+      </c>
+      <c r="F500" t="s">
+        <v>719</v>
+      </c>
+      <c r="G500" t="s">
+        <v>14</v>
+      </c>
+      <c r="H500" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
+      <c r="A502" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
+      <c r="B503" t="s">
+        <v>722</v>
+      </c>
+      <c r="C503" t="n">
+        <v>3.0965</v>
+      </c>
+      <c r="D503" t="s">
+        <v>454</v>
+      </c>
+      <c r="E503" t="s">
+        <v>723</v>
+      </c>
+      <c r="F503" t="s">
+        <v>724</v>
+      </c>
+      <c r="G503" t="s">
+        <v>32</v>
+      </c>
+      <c r="H503" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
+      <c r="B504" t="s">
+        <v>725</v>
+      </c>
+      <c r="C504" t="n">
         <v>3.7605</v>
       </c>
-      <c r="D496" t="s">
-        <v>717</v>
-      </c>
-      <c r="E496" t="s">
-        <v>718</v>
-      </c>
-      <c r="F496" t="s">
-        <v>32</v>
-      </c>
-      <c r="G496" t="s">
-        <v>32</v>
-      </c>
-      <c r="H496" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8">
-      <c r="B497" t="s">
-        <v>719</v>
-      </c>
-      <c r="C497" t="n">
-        <v>3.0965</v>
-      </c>
-      <c r="D497" t="s">
-        <v>451</v>
-      </c>
-      <c r="E497" t="s">
-        <v>720</v>
-      </c>
-      <c r="F497" t="s">
-        <v>721</v>
-      </c>
-      <c r="G497" t="s">
-        <v>32</v>
-      </c>
-      <c r="H497" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8">
-      <c r="B498" t="s">
-        <v>722</v>
-      </c>
-      <c r="C498" t="n">
-        <v>3.325</v>
-      </c>
-      <c r="D498" t="s">
-        <v>723</v>
-      </c>
-      <c r="E498" t="s">
-        <v>724</v>
-      </c>
-      <c r="F498" t="s">
-        <v>32</v>
-      </c>
-      <c r="G498" t="s">
-        <v>32</v>
-      </c>
-      <c r="H498" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8">
-      <c r="A500" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8">
-      <c r="B501" t="s">
+      <c r="D504" t="s">
         <v>726</v>
       </c>
-      <c r="C501" t="n">
-        <v>3.105</v>
-      </c>
-      <c r="D501" t="s">
-        <v>326</v>
-      </c>
-      <c r="E501" t="s">
-        <v>140</v>
-      </c>
-      <c r="F501" t="s">
-        <v>210</v>
-      </c>
-      <c r="G501" t="s">
-        <v>603</v>
-      </c>
-      <c r="H501" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="502" spans="1:8">
-      <c r="B502" t="s">
+      <c r="E504" t="s">
         <v>727</v>
       </c>
-      <c r="C502" t="n">
-        <v>3.464</v>
-      </c>
-      <c r="D502" t="s">
-        <v>701</v>
-      </c>
-      <c r="E502" t="s">
-        <v>728</v>
-      </c>
-      <c r="F502" t="s">
-        <v>519</v>
-      </c>
-      <c r="G502" t="s">
-        <v>32</v>
-      </c>
-      <c r="H502" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8">
-      <c r="A504" t="s">
-        <v>729</v>
+      <c r="F504" t="s">
+        <v>32</v>
+      </c>
+      <c r="G504" t="s">
+        <v>32</v>
+      </c>
+      <c r="H504" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="505" spans="1:8">
       <c r="B505" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="C505" t="n">
-        <v>3.163</v>
+        <v>3.325</v>
       </c>
       <c r="D505" t="s">
+        <v>729</v>
+      </c>
+      <c r="E505" t="s">
         <v>730</v>
       </c>
-      <c r="E505" t="s">
-        <v>731</v>
-      </c>
       <c r="F505" t="s">
-        <v>396</v>
+        <v>32</v>
       </c>
       <c r="G505" t="s">
         <v>32</v>
@@ -8626,1218 +8662,1218 @@
     </row>
     <row r="507" spans="1:8">
       <c r="A507" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="508" spans="1:8">
       <c r="B508" t="s">
+        <v>732</v>
+      </c>
+      <c r="C508" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="D508" t="s">
+        <v>329</v>
+      </c>
+      <c r="E508" t="s">
+        <v>140</v>
+      </c>
+      <c r="F508" t="s">
+        <v>210</v>
+      </c>
+      <c r="G508" t="s">
+        <v>608</v>
+      </c>
+      <c r="H508" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
+      <c r="B509" t="s">
         <v>733</v>
       </c>
-      <c r="C508" t="n">
+      <c r="C509" t="n">
+        <v>3.464</v>
+      </c>
+      <c r="D509" t="s">
+        <v>707</v>
+      </c>
+      <c r="E509" t="s">
+        <v>734</v>
+      </c>
+      <c r="F509" t="s">
+        <v>522</v>
+      </c>
+      <c r="G509" t="s">
+        <v>32</v>
+      </c>
+      <c r="H509" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="A511" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8">
+      <c r="B512" t="s">
+        <v>728</v>
+      </c>
+      <c r="C512" t="n">
+        <v>3.163</v>
+      </c>
+      <c r="D512" t="s">
+        <v>736</v>
+      </c>
+      <c r="E512" t="s">
+        <v>737</v>
+      </c>
+      <c r="F512" t="s">
+        <v>399</v>
+      </c>
+      <c r="G512" t="s">
+        <v>32</v>
+      </c>
+      <c r="H512" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
+      <c r="A514" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8">
+      <c r="B515" t="s">
+        <v>739</v>
+      </c>
+      <c r="C515" t="n">
         <v>3.653</v>
       </c>
-      <c r="D508" t="s">
+      <c r="D515" t="s">
         <v>137</v>
       </c>
-      <c r="E508" t="s">
-        <v>734</v>
-      </c>
-      <c r="F508" t="s">
-        <v>735</v>
-      </c>
-      <c r="G508" t="s">
-        <v>32</v>
-      </c>
-      <c r="H508" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="510" spans="1:8">
-      <c r="A510" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8">
-      <c r="B511" t="s">
-        <v>737</v>
-      </c>
-      <c r="C511" t="n">
+      <c r="E515" t="s">
+        <v>740</v>
+      </c>
+      <c r="F515" t="s">
+        <v>741</v>
+      </c>
+      <c r="G515" t="s">
+        <v>32</v>
+      </c>
+      <c r="H515" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
+      <c r="A517" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
+      <c r="B518" t="s">
+        <v>743</v>
+      </c>
+      <c r="C518" t="n">
         <v>3.575</v>
       </c>
-      <c r="D511" t="s">
-        <v>738</v>
-      </c>
-      <c r="E511" t="s">
+      <c r="D518" t="s">
+        <v>744</v>
+      </c>
+      <c r="E518" t="s">
+        <v>745</v>
+      </c>
+      <c r="F518" t="s">
+        <v>32</v>
+      </c>
+      <c r="G518" t="s">
+        <v>32</v>
+      </c>
+      <c r="H518" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8">
+      <c r="A520" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
+      <c r="B521" t="s">
+        <v>401</v>
+      </c>
+      <c r="C521" t="n">
+        <v>3.621</v>
+      </c>
+      <c r="D521" t="s">
+        <v>747</v>
+      </c>
+      <c r="E521" t="s">
+        <v>748</v>
+      </c>
+      <c r="F521" t="s">
+        <v>749</v>
+      </c>
+      <c r="G521" t="s">
+        <v>32</v>
+      </c>
+      <c r="H521" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="A523" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
+      <c r="B524" t="s">
+        <v>751</v>
+      </c>
+      <c r="C524" t="n">
+        <v>2.3973</v>
+      </c>
+      <c r="D524" t="s">
+        <v>752</v>
+      </c>
+      <c r="E524" t="s">
+        <v>753</v>
+      </c>
+      <c r="F524" t="s">
+        <v>754</v>
+      </c>
+      <c r="G524" t="s">
+        <v>755</v>
+      </c>
+      <c r="H524" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
+      <c r="A526" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
+      <c r="B527" t="s">
+        <v>758</v>
+      </c>
+      <c r="C527" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="D527" t="s">
+        <v>452</v>
+      </c>
+      <c r="E527" t="s">
+        <v>143</v>
+      </c>
+      <c r="F527" t="s">
+        <v>759</v>
+      </c>
+      <c r="G527" t="s">
+        <v>32</v>
+      </c>
+      <c r="H527" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
+      <c r="A529" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8">
+      <c r="B530" t="s">
+        <v>758</v>
+      </c>
+      <c r="C530" t="n">
+        <v>4</v>
+      </c>
+      <c r="D530" t="s">
+        <v>230</v>
+      </c>
+      <c r="E530" t="s">
+        <v>32</v>
+      </c>
+      <c r="F530" t="s">
+        <v>32</v>
+      </c>
+      <c r="G530" t="s">
+        <v>32</v>
+      </c>
+      <c r="H530" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
+      <c r="A532" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
+      <c r="B533" t="s">
+        <v>762</v>
+      </c>
+      <c r="C533" t="n">
+        <v>3.718</v>
+      </c>
+      <c r="D533" t="s">
+        <v>763</v>
+      </c>
+      <c r="E533" t="s">
+        <v>764</v>
+      </c>
+      <c r="F533" t="s">
+        <v>32</v>
+      </c>
+      <c r="G533" t="s">
+        <v>32</v>
+      </c>
+      <c r="H533" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
+      <c r="A535" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="B536" t="s">
+        <v>766</v>
+      </c>
+      <c r="C536" t="n">
+        <v>3.331</v>
+      </c>
+      <c r="D536" t="s">
+        <v>710</v>
+      </c>
+      <c r="E536" t="s">
+        <v>767</v>
+      </c>
+      <c r="F536" t="s">
+        <v>667</v>
+      </c>
+      <c r="G536" t="s">
+        <v>32</v>
+      </c>
+      <c r="H536" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="A538" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="B539" t="s">
+        <v>769</v>
+      </c>
+      <c r="C539" t="n">
+        <v>4</v>
+      </c>
+      <c r="D539" t="s">
+        <v>230</v>
+      </c>
+      <c r="E539" t="s">
+        <v>32</v>
+      </c>
+      <c r="F539" t="s">
+        <v>32</v>
+      </c>
+      <c r="G539" t="s">
+        <v>32</v>
+      </c>
+      <c r="H539" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="A541" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="B542" t="s">
+        <v>713</v>
+      </c>
+      <c r="C542" t="n">
+        <v>3.482</v>
+      </c>
+      <c r="D542" t="s">
+        <v>771</v>
+      </c>
+      <c r="E542" t="s">
+        <v>772</v>
+      </c>
+      <c r="F542" t="s">
+        <v>399</v>
+      </c>
+      <c r="G542" t="s">
+        <v>32</v>
+      </c>
+      <c r="H542" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="B545" t="s">
         <v>739</v>
       </c>
-      <c r="F511" t="s">
-        <v>32</v>
-      </c>
-      <c r="G511" t="s">
-        <v>32</v>
-      </c>
-      <c r="H511" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8">
-      <c r="A513" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8">
-      <c r="B514" t="s">
-        <v>398</v>
-      </c>
-      <c r="C514" t="n">
-        <v>3.621</v>
-      </c>
-      <c r="D514" t="s">
-        <v>741</v>
-      </c>
-      <c r="E514" t="s">
-        <v>742</v>
-      </c>
-      <c r="F514" t="s">
-        <v>743</v>
-      </c>
-      <c r="G514" t="s">
-        <v>32</v>
-      </c>
-      <c r="H514" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8">
-      <c r="A516" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="517" spans="1:8">
-      <c r="B517" t="s">
-        <v>745</v>
-      </c>
-      <c r="C517" t="n">
-        <v>2.3973</v>
-      </c>
-      <c r="D517" t="s">
-        <v>746</v>
-      </c>
-      <c r="E517" t="s">
-        <v>747</v>
-      </c>
-      <c r="F517" t="s">
-        <v>748</v>
-      </c>
-      <c r="G517" t="s">
-        <v>749</v>
-      </c>
-      <c r="H517" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="519" spans="1:8">
-      <c r="A519" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="520" spans="1:8">
-      <c r="B520" t="s">
-        <v>752</v>
-      </c>
-      <c r="C520" t="n">
+      <c r="C545" t="n">
+        <v>4</v>
+      </c>
+      <c r="D545" t="s">
+        <v>230</v>
+      </c>
+      <c r="E545" t="s">
+        <v>32</v>
+      </c>
+      <c r="F545" t="s">
+        <v>32</v>
+      </c>
+      <c r="G545" t="s">
+        <v>32</v>
+      </c>
+      <c r="H545" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="A547" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
+      <c r="B548" t="s">
+        <v>775</v>
+      </c>
+      <c r="C548" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D548" t="s">
+        <v>585</v>
+      </c>
+      <c r="E548" t="s">
+        <v>175</v>
+      </c>
+      <c r="F548" t="s">
+        <v>399</v>
+      </c>
+      <c r="G548" t="s">
+        <v>32</v>
+      </c>
+      <c r="H548" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="A550" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
+      <c r="B551" t="s">
+        <v>777</v>
+      </c>
+      <c r="C551" t="n">
+        <v>3.213</v>
+      </c>
+      <c r="D551" t="s">
+        <v>778</v>
+      </c>
+      <c r="E551" t="s">
+        <v>779</v>
+      </c>
+      <c r="F551" t="s">
+        <v>628</v>
+      </c>
+      <c r="G551" t="s">
+        <v>32</v>
+      </c>
+      <c r="H551" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="A553" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
+      <c r="B554" t="s">
+        <v>766</v>
+      </c>
+      <c r="C554" t="n">
+        <v>3.405</v>
+      </c>
+      <c r="D554" t="s">
+        <v>781</v>
+      </c>
+      <c r="E554" t="s">
+        <v>782</v>
+      </c>
+      <c r="F554" t="s">
+        <v>783</v>
+      </c>
+      <c r="G554" t="s">
+        <v>32</v>
+      </c>
+      <c r="H554" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="A556" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="B557" t="s">
+        <v>775</v>
+      </c>
+      <c r="C557" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="D557" t="s">
+        <v>785</v>
+      </c>
+      <c r="E557" t="s">
+        <v>786</v>
+      </c>
+      <c r="F557" t="s">
+        <v>32</v>
+      </c>
+      <c r="G557" t="s">
+        <v>32</v>
+      </c>
+      <c r="H557" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="A559" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="B560" t="s">
+        <v>775</v>
+      </c>
+      <c r="C560" t="n">
+        <v>3.385</v>
+      </c>
+      <c r="D560" t="s">
+        <v>31</v>
+      </c>
+      <c r="E560" t="s">
+        <v>31</v>
+      </c>
+      <c r="F560" t="s">
+        <v>334</v>
+      </c>
+      <c r="G560" t="s">
+        <v>32</v>
+      </c>
+      <c r="H560" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
+      <c r="A562" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="B563" t="s">
+        <v>722</v>
+      </c>
+      <c r="C563" t="n">
+        <v>3.359</v>
+      </c>
+      <c r="D563" t="s">
+        <v>789</v>
+      </c>
+      <c r="E563" t="s">
+        <v>790</v>
+      </c>
+      <c r="F563" t="s">
+        <v>32</v>
+      </c>
+      <c r="G563" t="s">
+        <v>32</v>
+      </c>
+      <c r="H563" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="B566" t="s">
+        <v>769</v>
+      </c>
+      <c r="C566" t="n">
         <v>3.37</v>
       </c>
-      <c r="D520" t="s">
-        <v>449</v>
-      </c>
-      <c r="E520" t="s">
-        <v>143</v>
-      </c>
-      <c r="F520" t="s">
-        <v>753</v>
-      </c>
-      <c r="G520" t="s">
-        <v>32</v>
-      </c>
-      <c r="H520" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="522" spans="1:8">
-      <c r="A522" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8">
-      <c r="B523" t="s">
-        <v>752</v>
-      </c>
-      <c r="C523" t="n">
-        <v>4</v>
-      </c>
-      <c r="D523" t="s">
-        <v>230</v>
-      </c>
-      <c r="E523" t="s">
-        <v>32</v>
-      </c>
-      <c r="F523" t="s">
-        <v>32</v>
-      </c>
-      <c r="G523" t="s">
-        <v>32</v>
-      </c>
-      <c r="H523" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8">
-      <c r="A525" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="526" spans="1:8">
-      <c r="B526" t="s">
-        <v>756</v>
-      </c>
-      <c r="C526" t="n">
-        <v>3.718</v>
-      </c>
-      <c r="D526" t="s">
-        <v>757</v>
-      </c>
-      <c r="E526" t="s">
-        <v>758</v>
-      </c>
-      <c r="F526" t="s">
-        <v>32</v>
-      </c>
-      <c r="G526" t="s">
-        <v>32</v>
-      </c>
-      <c r="H526" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8">
-      <c r="A528" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="529" spans="1:8">
-      <c r="B529" t="s">
-        <v>760</v>
-      </c>
-      <c r="C529" t="n">
-        <v>3.331</v>
-      </c>
-      <c r="D529" t="s">
-        <v>704</v>
-      </c>
-      <c r="E529" t="s">
-        <v>761</v>
-      </c>
-      <c r="F529" t="s">
-        <v>663</v>
-      </c>
-      <c r="G529" t="s">
-        <v>32</v>
-      </c>
-      <c r="H529" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="531" spans="1:8">
-      <c r="A531" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="532" spans="1:8">
-      <c r="B532" t="s">
-        <v>763</v>
-      </c>
-      <c r="C532" t="n">
-        <v>4</v>
-      </c>
-      <c r="D532" t="s">
-        <v>230</v>
-      </c>
-      <c r="E532" t="s">
-        <v>32</v>
-      </c>
-      <c r="F532" t="s">
-        <v>32</v>
-      </c>
-      <c r="G532" t="s">
-        <v>32</v>
-      </c>
-      <c r="H532" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="534" spans="1:8">
-      <c r="A534" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8">
-      <c r="B535" t="s">
-        <v>707</v>
-      </c>
-      <c r="C535" t="n">
-        <v>3.482</v>
-      </c>
-      <c r="D535" t="s">
-        <v>765</v>
-      </c>
-      <c r="E535" t="s">
-        <v>766</v>
-      </c>
-      <c r="F535" t="s">
-        <v>396</v>
-      </c>
-      <c r="G535" t="s">
-        <v>32</v>
-      </c>
-      <c r="H535" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="537" spans="1:8">
-      <c r="A537" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="538" spans="1:8">
-      <c r="B538" t="s">
-        <v>733</v>
-      </c>
-      <c r="C538" t="n">
-        <v>4</v>
-      </c>
-      <c r="D538" t="s">
-        <v>230</v>
-      </c>
-      <c r="E538" t="s">
-        <v>32</v>
-      </c>
-      <c r="F538" t="s">
-        <v>32</v>
-      </c>
-      <c r="G538" t="s">
-        <v>32</v>
-      </c>
-      <c r="H538" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8">
-      <c r="A540" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="541" spans="1:8">
-      <c r="B541" t="s">
-        <v>769</v>
-      </c>
-      <c r="C541" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D541" t="s">
-        <v>579</v>
-      </c>
-      <c r="E541" t="s">
-        <v>175</v>
-      </c>
-      <c r="F541" t="s">
-        <v>396</v>
-      </c>
-      <c r="G541" t="s">
-        <v>32</v>
-      </c>
-      <c r="H541" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="543" spans="1:8">
-      <c r="A543" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="544" spans="1:8">
-      <c r="B544" t="s">
-        <v>771</v>
-      </c>
-      <c r="C544" t="n">
-        <v>3.213</v>
-      </c>
-      <c r="D544" t="s">
-        <v>772</v>
-      </c>
-      <c r="E544" t="s">
-        <v>773</v>
-      </c>
-      <c r="F544" t="s">
-        <v>623</v>
-      </c>
-      <c r="G544" t="s">
-        <v>32</v>
-      </c>
-      <c r="H544" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="546" spans="1:8">
-      <c r="A546" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="547" spans="1:8">
-      <c r="B547" t="s">
-        <v>760</v>
-      </c>
-      <c r="C547" t="n">
-        <v>3.405</v>
-      </c>
-      <c r="D547" t="s">
-        <v>775</v>
-      </c>
-      <c r="E547" t="s">
-        <v>776</v>
-      </c>
-      <c r="F547" t="s">
-        <v>777</v>
-      </c>
-      <c r="G547" t="s">
-        <v>32</v>
-      </c>
-      <c r="H547" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="549" spans="1:8">
-      <c r="A549" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="550" spans="1:8">
-      <c r="B550" t="s">
-        <v>769</v>
-      </c>
-      <c r="C550" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="D550" t="s">
-        <v>779</v>
-      </c>
-      <c r="E550" t="s">
-        <v>780</v>
-      </c>
-      <c r="F550" t="s">
-        <v>32</v>
-      </c>
-      <c r="G550" t="s">
-        <v>32</v>
-      </c>
-      <c r="H550" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8">
-      <c r="A552" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="553" spans="1:8">
-      <c r="B553" t="s">
-        <v>769</v>
-      </c>
-      <c r="C553" t="n">
-        <v>3.385</v>
-      </c>
-      <c r="D553" t="s">
-        <v>31</v>
-      </c>
-      <c r="E553" t="s">
-        <v>31</v>
-      </c>
-      <c r="F553" t="s">
-        <v>331</v>
-      </c>
-      <c r="G553" t="s">
-        <v>32</v>
-      </c>
-      <c r="H553" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="555" spans="1:8">
-      <c r="A555" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="556" spans="1:8">
-      <c r="B556" t="s">
-        <v>719</v>
-      </c>
-      <c r="C556" t="n">
-        <v>3.359</v>
-      </c>
-      <c r="D556" t="s">
-        <v>783</v>
-      </c>
-      <c r="E556" t="s">
-        <v>784</v>
-      </c>
-      <c r="F556" t="s">
-        <v>32</v>
-      </c>
-      <c r="G556" t="s">
-        <v>32</v>
-      </c>
-      <c r="H556" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8">
-      <c r="A558" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="559" spans="1:8">
-      <c r="B559" t="s">
-        <v>763</v>
-      </c>
-      <c r="C559" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="D559" t="s">
-        <v>786</v>
-      </c>
-      <c r="E559" t="s">
-        <v>787</v>
-      </c>
-      <c r="F559" t="s">
-        <v>32</v>
-      </c>
-      <c r="G559" t="s">
-        <v>32</v>
-      </c>
-      <c r="H559" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8">
-      <c r="A561" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="562" spans="1:8">
-      <c r="B562" t="s">
-        <v>789</v>
-      </c>
-      <c r="C562" t="n">
+      <c r="D566" t="s">
+        <v>792</v>
+      </c>
+      <c r="E566" t="s">
+        <v>793</v>
+      </c>
+      <c r="F566" t="s">
+        <v>32</v>
+      </c>
+      <c r="G566" t="s">
+        <v>32</v>
+      </c>
+      <c r="H566" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="B569" t="s">
+        <v>795</v>
+      </c>
+      <c r="C569" t="n">
         <v>3.95</v>
       </c>
-      <c r="D562" t="s">
-        <v>790</v>
-      </c>
-      <c r="E562" t="s">
+      <c r="D569" t="s">
+        <v>796</v>
+      </c>
+      <c r="E569" t="s">
         <v>288</v>
       </c>
-      <c r="F562" t="s">
-        <v>32</v>
-      </c>
-      <c r="G562" t="s">
-        <v>32</v>
-      </c>
-      <c r="H562" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="564" spans="1:8">
-      <c r="A564" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="565" spans="1:8">
-      <c r="B565" t="s">
-        <v>726</v>
-      </c>
-      <c r="C565" t="n">
+      <c r="F569" t="s">
+        <v>32</v>
+      </c>
+      <c r="G569" t="s">
+        <v>32</v>
+      </c>
+      <c r="H569" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="B572" t="s">
+        <v>732</v>
+      </c>
+      <c r="C572" t="n">
         <v>3.372</v>
       </c>
-      <c r="D565" t="s">
-        <v>792</v>
-      </c>
-      <c r="E565" t="s">
-        <v>793</v>
-      </c>
-      <c r="F565" t="s">
-        <v>794</v>
-      </c>
-      <c r="G565" t="s">
-        <v>32</v>
-      </c>
-      <c r="H565" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="567" spans="1:8">
-      <c r="A567" t="s">
+      <c r="D572" t="s">
+        <v>798</v>
+      </c>
+      <c r="E572" t="s">
+        <v>799</v>
+      </c>
+      <c r="F572" t="s">
+        <v>800</v>
+      </c>
+      <c r="G572" t="s">
+        <v>32</v>
+      </c>
+      <c r="H572" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8">
+      <c r="B575" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="568" spans="1:8">
-      <c r="B568" t="s">
-        <v>789</v>
-      </c>
-      <c r="C568" t="n">
+      <c r="C575" t="n">
         <v>3.86</v>
       </c>
-      <c r="D568" t="s">
-        <v>796</v>
-      </c>
-      <c r="E568" t="s">
+      <c r="D575" t="s">
+        <v>802</v>
+      </c>
+      <c r="E575" t="s">
         <v>260</v>
       </c>
-      <c r="F568" t="s">
-        <v>32</v>
-      </c>
-      <c r="G568" t="s">
-        <v>32</v>
-      </c>
-      <c r="H568" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="570" spans="1:8">
-      <c r="A570" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="571" spans="1:8">
-      <c r="B571" t="s">
-        <v>798</v>
-      </c>
-      <c r="C571" t="n">
+      <c r="F575" t="s">
+        <v>32</v>
+      </c>
+      <c r="G575" t="s">
+        <v>32</v>
+      </c>
+      <c r="H575" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
+      <c r="A577" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
+      <c r="B578" t="s">
+        <v>804</v>
+      </c>
+      <c r="C578" t="n">
         <v>3.927</v>
       </c>
-      <c r="D571" t="s">
-        <v>799</v>
-      </c>
-      <c r="E571" t="s">
-        <v>800</v>
-      </c>
-      <c r="F571" t="s">
-        <v>32</v>
-      </c>
-      <c r="G571" t="s">
-        <v>32</v>
-      </c>
-      <c r="H571" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="573" spans="1:8">
-      <c r="A573" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="574" spans="1:8">
-      <c r="B574" t="s">
-        <v>726</v>
-      </c>
-      <c r="C574" t="n">
+      <c r="D578" t="s">
+        <v>805</v>
+      </c>
+      <c r="E578" t="s">
+        <v>806</v>
+      </c>
+      <c r="F578" t="s">
+        <v>32</v>
+      </c>
+      <c r="G578" t="s">
+        <v>32</v>
+      </c>
+      <c r="H578" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
+      <c r="A580" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
+      <c r="B581" t="s">
+        <v>732</v>
+      </c>
+      <c r="C581" t="n">
         <v>3.49</v>
       </c>
-      <c r="D574" t="s">
-        <v>802</v>
-      </c>
-      <c r="E574" t="s">
-        <v>803</v>
-      </c>
-      <c r="F574" t="s">
-        <v>32</v>
-      </c>
-      <c r="G574" t="s">
-        <v>32</v>
-      </c>
-      <c r="H574" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="576" spans="1:8">
-      <c r="A576" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="577" spans="1:8">
-      <c r="B577" t="s">
-        <v>727</v>
-      </c>
-      <c r="C577" t="n">
-        <v>4</v>
-      </c>
-      <c r="D577" t="s">
-        <v>230</v>
-      </c>
-      <c r="E577" t="s">
-        <v>32</v>
-      </c>
-      <c r="F577" t="s">
-        <v>32</v>
-      </c>
-      <c r="G577" t="s">
-        <v>32</v>
-      </c>
-      <c r="H577" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="579" spans="1:8">
-      <c r="A579" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="580" spans="1:8">
-      <c r="B580" t="s">
-        <v>432</v>
-      </c>
-      <c r="C580" t="n">
-        <v>3.0618</v>
-      </c>
-      <c r="D580" t="s">
-        <v>806</v>
-      </c>
-      <c r="E580" t="s">
-        <v>174</v>
-      </c>
-      <c r="F580" t="s">
-        <v>807</v>
-      </c>
-      <c r="G580" t="s">
+      <c r="D581" t="s">
         <v>808</v>
       </c>
-      <c r="H580" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="582" spans="1:8">
-      <c r="A582" t="s">
+      <c r="E581" t="s">
         <v>809</v>
       </c>
+      <c r="F581" t="s">
+        <v>32</v>
+      </c>
+      <c r="G581" t="s">
+        <v>32</v>
+      </c>
+      <c r="H581" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="583" spans="1:8">
-      <c r="B583" t="s">
+      <c r="A583" t="s">
         <v>810</v>
-      </c>
-      <c r="C583" t="n">
-        <v>3.522</v>
-      </c>
-      <c r="D583" t="s">
-        <v>811</v>
-      </c>
-      <c r="E583" t="s">
-        <v>812</v>
-      </c>
-      <c r="F583" t="s">
-        <v>440</v>
-      </c>
-      <c r="G583" t="s">
-        <v>32</v>
-      </c>
-      <c r="H583" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="584" spans="1:8">
       <c r="B584" t="s">
-        <v>813</v>
+        <v>733</v>
       </c>
       <c r="C584" t="n">
-        <v>3.0207</v>
+        <v>4</v>
       </c>
       <c r="D584" t="s">
-        <v>814</v>
+        <v>230</v>
       </c>
       <c r="E584" t="s">
-        <v>815</v>
+        <v>32</v>
       </c>
       <c r="F584" t="s">
-        <v>816</v>
+        <v>32</v>
       </c>
       <c r="G584" t="s">
-        <v>817</v>
+        <v>32</v>
       </c>
       <c r="H584" t="s">
-        <v>714</v>
+        <v>32</v>
       </c>
     </row>
     <row r="586" spans="1:8">
       <c r="A586" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
     </row>
     <row r="587" spans="1:8">
       <c r="B587" t="s">
-        <v>819</v>
+        <v>435</v>
       </c>
       <c r="C587" t="n">
-        <v>2.816</v>
+        <v>3.0618</v>
       </c>
       <c r="D587" t="s">
-        <v>34</v>
+        <v>812</v>
       </c>
       <c r="E587" t="s">
-        <v>820</v>
+        <v>174</v>
       </c>
       <c r="F587" t="s">
-        <v>213</v>
+        <v>813</v>
       </c>
       <c r="G587" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="H587" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="589" spans="1:8">
       <c r="A589" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="590" spans="1:8">
       <c r="B590" t="s">
+        <v>816</v>
+      </c>
+      <c r="C590" t="n">
+        <v>3.522</v>
+      </c>
+      <c r="D590" t="s">
+        <v>817</v>
+      </c>
+      <c r="E590" t="s">
+        <v>818</v>
+      </c>
+      <c r="F590" t="s">
+        <v>443</v>
+      </c>
+      <c r="G590" t="s">
+        <v>32</v>
+      </c>
+      <c r="H590" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="B591" t="s">
+        <v>819</v>
+      </c>
+      <c r="C591" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="D591" t="s">
+        <v>820</v>
+      </c>
+      <c r="E591" t="s">
+        <v>430</v>
+      </c>
+      <c r="F591" t="s">
+        <v>84</v>
+      </c>
+      <c r="G591" t="s">
+        <v>821</v>
+      </c>
+      <c r="H591" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
+      <c r="B592" t="s">
+        <v>822</v>
+      </c>
+      <c r="C592" t="n">
+        <v>3.0207</v>
+      </c>
+      <c r="D592" t="s">
+        <v>823</v>
+      </c>
+      <c r="E592" t="s">
+        <v>824</v>
+      </c>
+      <c r="F592" t="s">
+        <v>825</v>
+      </c>
+      <c r="G592" t="s">
+        <v>826</v>
+      </c>
+      <c r="H592" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
+      <c r="A594" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
+      <c r="B595" t="s">
+        <v>828</v>
+      </c>
+      <c r="C595" t="n">
+        <v>2.816</v>
+      </c>
+      <c r="D595" t="s">
+        <v>34</v>
+      </c>
+      <c r="E595" t="s">
+        <v>829</v>
+      </c>
+      <c r="F595" t="s">
+        <v>213</v>
+      </c>
+      <c r="G595" t="s">
+        <v>830</v>
+      </c>
+      <c r="H595" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8">
+      <c r="A597" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8">
+      <c r="B598" t="s">
         <v>233</v>
       </c>
-      <c r="C590" t="n">
+      <c r="C598" t="n">
         <v>3.2785</v>
       </c>
-      <c r="D590" t="s">
-        <v>823</v>
-      </c>
-      <c r="E590" t="s">
-        <v>824</v>
-      </c>
-      <c r="F590" t="s">
-        <v>825</v>
-      </c>
-      <c r="G590" t="s">
-        <v>32</v>
-      </c>
-      <c r="H590" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="592" spans="1:8">
-      <c r="A592" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="593" spans="1:8">
-      <c r="B593" t="s">
-        <v>827</v>
-      </c>
-      <c r="C593" t="n">
+      <c r="D598" t="s">
+        <v>832</v>
+      </c>
+      <c r="E598" t="s">
+        <v>833</v>
+      </c>
+      <c r="F598" t="s">
+        <v>834</v>
+      </c>
+      <c r="G598" t="s">
+        <v>32</v>
+      </c>
+      <c r="H598" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
+      <c r="A600" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8">
+      <c r="B601" t="s">
+        <v>836</v>
+      </c>
+      <c r="C601" t="n">
         <v>3.392</v>
       </c>
-      <c r="D593" t="s">
-        <v>828</v>
-      </c>
-      <c r="E593" t="s">
-        <v>829</v>
-      </c>
-      <c r="F593" t="s">
-        <v>830</v>
-      </c>
-      <c r="G593" t="s">
-        <v>831</v>
-      </c>
-      <c r="H593" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="594" spans="1:8">
-      <c r="B594" t="s">
-        <v>832</v>
-      </c>
-      <c r="C594" t="n">
+      <c r="D601" t="s">
+        <v>837</v>
+      </c>
+      <c r="E601" t="s">
+        <v>838</v>
+      </c>
+      <c r="F601" t="s">
+        <v>839</v>
+      </c>
+      <c r="G601" t="s">
+        <v>840</v>
+      </c>
+      <c r="H601" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8">
+      <c r="B602" t="s">
+        <v>841</v>
+      </c>
+      <c r="C602" t="n">
         <v>3.4107</v>
       </c>
-      <c r="D594" t="s">
-        <v>833</v>
-      </c>
-      <c r="E594" t="s">
-        <v>834</v>
-      </c>
-      <c r="F594" t="s">
-        <v>835</v>
-      </c>
-      <c r="G594" t="s">
-        <v>836</v>
-      </c>
-      <c r="H594" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="596" spans="1:8">
-      <c r="A596" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="597" spans="1:8">
-      <c r="B597" t="s">
-        <v>819</v>
-      </c>
-      <c r="C597" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="D597" t="s">
-        <v>495</v>
-      </c>
-      <c r="E597" t="s">
-        <v>838</v>
-      </c>
-      <c r="F597" t="s">
-        <v>839</v>
-      </c>
-      <c r="G597" t="s">
-        <v>840</v>
-      </c>
-      <c r="H597" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="599" spans="1:8">
-      <c r="A599" t="s">
+      <c r="D602" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="600" spans="1:8">
-      <c r="B600" t="s">
-        <v>810</v>
-      </c>
-      <c r="C600" t="n">
-        <v>3.334</v>
-      </c>
-      <c r="D600" t="s">
+      <c r="E602" t="s">
         <v>843</v>
       </c>
-      <c r="E600" t="s">
+      <c r="F602" t="s">
         <v>844</v>
       </c>
-      <c r="F600" t="s">
-        <v>427</v>
-      </c>
-      <c r="G600" t="s">
-        <v>32</v>
-      </c>
-      <c r="H600" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="602" spans="1:8">
-      <c r="A602" t="s">
+      <c r="G602" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="603" spans="1:8">
-      <c r="B603" t="s">
+      <c r="H602" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8">
+      <c r="A604" t="s">
         <v>846</v>
-      </c>
-      <c r="C603" t="n">
-        <v>3.0875</v>
-      </c>
-      <c r="D603" t="s">
-        <v>847</v>
-      </c>
-      <c r="E603" t="s">
-        <v>848</v>
-      </c>
-      <c r="F603" t="s">
-        <v>849</v>
-      </c>
-      <c r="G603" t="s">
-        <v>639</v>
-      </c>
-      <c r="H603" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="604" spans="1:8">
-      <c r="B604" t="s">
-        <v>850</v>
-      </c>
-      <c r="C604" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="D604" t="s">
-        <v>215</v>
-      </c>
-      <c r="E604" t="s">
-        <v>296</v>
-      </c>
-      <c r="F604" t="s">
-        <v>851</v>
-      </c>
-      <c r="G604" t="s">
-        <v>550</v>
-      </c>
-      <c r="H604" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="605" spans="1:8">
       <c r="B605" t="s">
+        <v>828</v>
+      </c>
+      <c r="C605" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="D605" t="s">
+        <v>498</v>
+      </c>
+      <c r="E605" t="s">
+        <v>847</v>
+      </c>
+      <c r="F605" t="s">
+        <v>848</v>
+      </c>
+      <c r="G605" t="s">
+        <v>849</v>
+      </c>
+      <c r="H605" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8">
+      <c r="A607" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8">
+      <c r="B608" t="s">
+        <v>816</v>
+      </c>
+      <c r="C608" t="n">
+        <v>3.334</v>
+      </c>
+      <c r="D608" t="s">
         <v>852</v>
       </c>
-      <c r="C605" t="n">
-        <v>3.771</v>
-      </c>
-      <c r="D605" t="s">
-        <v>256</v>
-      </c>
-      <c r="E605" t="s">
+      <c r="E608" t="s">
         <v>853</v>
       </c>
-      <c r="F605" t="s">
+      <c r="F608" t="s">
+        <v>432</v>
+      </c>
+      <c r="G608" t="s">
+        <v>32</v>
+      </c>
+      <c r="H608" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8">
+      <c r="A610" t="s">
         <v>854</v>
       </c>
-      <c r="G605" t="s">
-        <v>32</v>
-      </c>
-      <c r="H605" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="606" spans="1:8">
-      <c r="B606" t="s">
+    </row>
+    <row r="611" spans="1:8">
+      <c r="B611" t="s">
+        <v>819</v>
+      </c>
+      <c r="C611" t="n">
+        <v>3.3015</v>
+      </c>
+      <c r="D611" t="s">
         <v>855</v>
       </c>
-      <c r="C606" t="n">
-        <v>3.143</v>
-      </c>
-      <c r="D606" t="s">
+      <c r="E611" t="s">
+        <v>143</v>
+      </c>
+      <c r="F611" t="s">
         <v>856</v>
       </c>
-      <c r="E606" t="s">
+      <c r="G611" t="s">
+        <v>32</v>
+      </c>
+      <c r="H611" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8">
+      <c r="A613" t="s">
         <v>857</v>
       </c>
-      <c r="F606" t="s">
-        <v>853</v>
-      </c>
-      <c r="G606" t="s">
-        <v>32</v>
-      </c>
-      <c r="H606" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="608" spans="1:8">
-      <c r="A608" t="s">
+    </row>
+    <row r="614" spans="1:8">
+      <c r="B614" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="609" spans="1:8">
-      <c r="B609" t="s">
-        <v>432</v>
-      </c>
-      <c r="C609" t="n">
-        <v>3.1688</v>
-      </c>
-      <c r="D609" t="s">
+      <c r="C614" t="n">
+        <v>3.147</v>
+      </c>
+      <c r="D614" t="s">
+        <v>215</v>
+      </c>
+      <c r="E614" t="s">
+        <v>299</v>
+      </c>
+      <c r="F614" t="s">
         <v>859</v>
       </c>
-      <c r="E609" t="s">
-        <v>860</v>
-      </c>
-      <c r="F609" t="s">
-        <v>861</v>
-      </c>
-      <c r="G609" t="s">
-        <v>581</v>
-      </c>
-      <c r="H609" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="611" spans="1:8">
-      <c r="A611" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="612" spans="1:8">
-      <c r="B612" t="s">
-        <v>484</v>
-      </c>
-      <c r="C612" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="D612" t="s">
-        <v>140</v>
-      </c>
-      <c r="E612" t="s">
-        <v>863</v>
-      </c>
-      <c r="F612" t="s">
-        <v>32</v>
-      </c>
-      <c r="G612" t="s">
-        <v>32</v>
-      </c>
-      <c r="H612" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="614" spans="1:8">
-      <c r="A614" t="s">
-        <v>865</v>
+      <c r="G614" t="s">
+        <v>553</v>
+      </c>
+      <c r="H614" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="615" spans="1:8">
       <c r="B615" t="s">
+        <v>860</v>
+      </c>
+      <c r="C615" t="n">
+        <v>3.0875</v>
+      </c>
+      <c r="D615" t="s">
+        <v>861</v>
+      </c>
+      <c r="E615" t="s">
+        <v>862</v>
+      </c>
+      <c r="F615" t="s">
+        <v>863</v>
+      </c>
+      <c r="G615" t="s">
+        <v>644</v>
+      </c>
+      <c r="H615" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8">
+      <c r="B616" t="s">
+        <v>864</v>
+      </c>
+      <c r="C616" t="n">
+        <v>3.771</v>
+      </c>
+      <c r="D616" t="s">
+        <v>256</v>
+      </c>
+      <c r="E616" t="s">
+        <v>865</v>
+      </c>
+      <c r="F616" t="s">
         <v>866</v>
       </c>
-      <c r="C615" t="n">
-        <v>3.542</v>
-      </c>
-      <c r="D615" t="s">
-        <v>682</v>
-      </c>
-      <c r="E615" t="s">
-        <v>103</v>
-      </c>
-      <c r="F615" t="s">
-        <v>32</v>
-      </c>
-      <c r="G615" t="s">
-        <v>32</v>
-      </c>
-      <c r="H615" t="s">
+      <c r="G616" t="s">
+        <v>32</v>
+      </c>
+      <c r="H616" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="617" spans="1:8">
-      <c r="A617" t="s">
+      <c r="B617" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="618" spans="1:8">
-      <c r="B618" t="s">
+      <c r="C617" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="D617" t="s">
         <v>868</v>
       </c>
-      <c r="C618" t="n">
-        <v>3.3765</v>
-      </c>
-      <c r="D618" t="s">
-        <v>166</v>
-      </c>
-      <c r="E618" t="s">
+      <c r="E617" t="s">
         <v>869</v>
       </c>
-      <c r="F618" t="s">
-        <v>623</v>
-      </c>
-      <c r="G618" t="s">
-        <v>32</v>
-      </c>
-      <c r="H618" t="s">
+      <c r="F617" t="s">
+        <v>865</v>
+      </c>
+      <c r="G617" t="s">
+        <v>32</v>
+      </c>
+      <c r="H617" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="619" spans="1:8">
-      <c r="B619" t="s">
-        <v>561</v>
-      </c>
-      <c r="C619" t="n">
-        <v>3.5465</v>
-      </c>
-      <c r="D619" t="s">
+      <c r="A619" t="s">
         <v>870</v>
       </c>
-      <c r="E619" t="s">
+    </row>
+    <row r="620" spans="1:8">
+      <c r="B620" t="s">
+        <v>435</v>
+      </c>
+      <c r="C620" t="n">
+        <v>3.1688</v>
+      </c>
+      <c r="D620" t="s">
         <v>871</v>
       </c>
-      <c r="F619" t="s">
+      <c r="E620" t="s">
         <v>872</v>
       </c>
-      <c r="G619" t="s">
-        <v>32</v>
-      </c>
-      <c r="H619" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="621" spans="1:8">
-      <c r="A621" t="s">
+      <c r="F620" t="s">
         <v>873</v>
       </c>
+      <c r="G620" t="s">
+        <v>586</v>
+      </c>
+      <c r="H620" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="622" spans="1:8">
-      <c r="B622" t="s">
+      <c r="A622" t="s">
         <v>874</v>
-      </c>
-      <c r="C622" t="n">
-        <v>3.207</v>
-      </c>
-      <c r="D622" t="s">
-        <v>875</v>
-      </c>
-      <c r="E622" t="s">
-        <v>876</v>
-      </c>
-      <c r="F622" t="s">
-        <v>877</v>
-      </c>
-      <c r="G622" t="s">
-        <v>32</v>
-      </c>
-      <c r="H622" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="623" spans="1:8">
       <c r="B623" t="s">
-        <v>878</v>
+        <v>487</v>
       </c>
       <c r="C623" t="n">
-        <v>3.477</v>
+        <v>3.54</v>
       </c>
       <c r="D623" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="E623" t="s">
-        <v>649</v>
+        <v>875</v>
       </c>
       <c r="F623" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="G623" t="s">
         <v>32</v>
       </c>
       <c r="H623" t="s">
-        <v>32</v>
+        <v>876</v>
       </c>
     </row>
     <row r="625" spans="1:8">
       <c r="A625" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="626" spans="1:8">
       <c r="B626" t="s">
-        <v>233</v>
+        <v>878</v>
       </c>
       <c r="C626" t="n">
-        <v>3.585</v>
+        <v>3.542</v>
       </c>
       <c r="D626" t="s">
-        <v>880</v>
+        <v>688</v>
       </c>
       <c r="E626" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="F626" t="s">
         <v>32</v>
@@ -9851,29 +9887,159 @@
     </row>
     <row r="628" spans="1:8">
       <c r="A628" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="629" spans="1:8">
       <c r="B629" t="s">
+        <v>880</v>
+      </c>
+      <c r="C629" t="n">
+        <v>3.3765</v>
+      </c>
+      <c r="D629" t="s">
+        <v>166</v>
+      </c>
+      <c r="E629" t="s">
+        <v>881</v>
+      </c>
+      <c r="F629" t="s">
+        <v>628</v>
+      </c>
+      <c r="G629" t="s">
+        <v>32</v>
+      </c>
+      <c r="H629" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8">
+      <c r="B630" t="s">
+        <v>567</v>
+      </c>
+      <c r="C630" t="n">
+        <v>3.5465</v>
+      </c>
+      <c r="D630" t="s">
         <v>882</v>
       </c>
-      <c r="C629" t="n">
+      <c r="E630" t="s">
+        <v>883</v>
+      </c>
+      <c r="F630" t="s">
+        <v>884</v>
+      </c>
+      <c r="G630" t="s">
+        <v>32</v>
+      </c>
+      <c r="H630" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8">
+      <c r="A632" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8">
+      <c r="B633" t="s">
+        <v>886</v>
+      </c>
+      <c r="C633" t="n">
+        <v>3.207</v>
+      </c>
+      <c r="D633" t="s">
+        <v>887</v>
+      </c>
+      <c r="E633" t="s">
+        <v>888</v>
+      </c>
+      <c r="F633" t="s">
+        <v>889</v>
+      </c>
+      <c r="G633" t="s">
+        <v>32</v>
+      </c>
+      <c r="H633" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8">
+      <c r="B634" t="s">
+        <v>890</v>
+      </c>
+      <c r="C634" t="n">
+        <v>3.477</v>
+      </c>
+      <c r="D634" t="s">
+        <v>181</v>
+      </c>
+      <c r="E634" t="s">
+        <v>654</v>
+      </c>
+      <c r="F634" t="s">
+        <v>210</v>
+      </c>
+      <c r="G634" t="s">
+        <v>32</v>
+      </c>
+      <c r="H634" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8">
+      <c r="A636" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8">
+      <c r="B637" t="s">
+        <v>233</v>
+      </c>
+      <c r="C637" t="n">
+        <v>3.585</v>
+      </c>
+      <c r="D637" t="s">
+        <v>892</v>
+      </c>
+      <c r="E637" t="s">
+        <v>310</v>
+      </c>
+      <c r="F637" t="s">
+        <v>32</v>
+      </c>
+      <c r="G637" t="s">
+        <v>32</v>
+      </c>
+      <c r="H637" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8">
+      <c r="A639" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8">
+      <c r="B640" t="s">
+        <v>894</v>
+      </c>
+      <c r="C640" t="n">
         <v>3.708</v>
       </c>
-      <c r="D629" t="s">
-        <v>883</v>
-      </c>
-      <c r="E629" t="s">
+      <c r="D640" t="s">
+        <v>895</v>
+      </c>
+      <c r="E640" t="s">
         <v>175</v>
       </c>
-      <c r="F629" t="s">
+      <c r="F640" t="s">
         <v>105</v>
       </c>
-      <c r="G629" t="s">
-        <v>32</v>
-      </c>
-      <c r="H629" t="s">
+      <c r="G640" t="s">
+        <v>32</v>
+      </c>
+      <c r="H640" t="s">
         <v>32</v>
       </c>
     </row>
